--- a/data extraction /lit search metadata /wos176_final.xlsx
+++ b/data extraction /lit search metadata /wos176_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F008EA7-3BEB-8646-9346-697AC250F888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55B043E-6D86-6D47-8E38-1EF3CC7A6840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="460" windowWidth="25300" windowHeight="15580"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="25300" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wos176_final" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="936">
   <si>
     <t>label</t>
   </si>
@@ -596,9 +596,6 @@
   </si>
   <si>
     <t>Impact of Daily Variable Temperatures in Life-History Traits of Tropical Anurans.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not sure if this is considered a journal in english but the manuscript is </t>
   </si>
   <si>
     <t>Brana_2007_BIJOOFTHLISO</t>
@@ -2837,7 +2834,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3689,12 +3686,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P40" sqref="P40"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3743,10 +3740,10 @@
         <v>183</v>
       </c>
       <c r="O1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="P1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Q1" t="s">
         <v>10</v>
@@ -4654,95 +4651,95 @@
         <v>23</v>
       </c>
       <c r="N23" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O23" t="s">
+        <v>864</v>
+      </c>
+      <c r="P23" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="P23" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>184</v>
-      </c>
-      <c r="B24" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F24">
-        <v>2017</v>
-      </c>
-      <c r="G24" t="s">
-        <v>189</v>
-      </c>
-      <c r="H24" t="s">
-        <v>190</v>
-      </c>
-      <c r="I24" t="s">
-        <v>191</v>
-      </c>
-      <c r="J24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" t="s">
-        <v>183</v>
-      </c>
-      <c r="L24" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N24" t="s">
-        <v>857</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="P24" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="P24" t="s">
-        <v>867</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>192</v>
+      <c r="Q24" s="1" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" t="s">
         <v>193</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>194</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>195</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>196</v>
-      </c>
-      <c r="E25" t="s">
-        <v>197</v>
       </c>
       <c r="F25">
         <v>2007</v>
       </c>
       <c r="G25" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" t="s">
         <v>198</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>199</v>
-      </c>
-      <c r="I25" t="s">
-        <v>200</v>
       </c>
       <c r="J25" t="s">
         <v>21</v>
@@ -4757,42 +4754,42 @@
         <v>23</v>
       </c>
       <c r="N25" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O25" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="P25" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" t="s">
         <v>201</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>202</v>
-      </c>
-      <c r="C26" t="s">
-        <v>203</v>
       </c>
       <c r="D26" t="s">
         <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F26">
         <v>1991</v>
       </c>
       <c r="G26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H26" t="s">
         <v>114</v>
       </c>
       <c r="I26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J26" t="s">
         <v>21</v>
@@ -4807,45 +4804,45 @@
         <v>23</v>
       </c>
       <c r="N26" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O26" t="s">
+        <v>865</v>
+      </c>
+      <c r="P26" t="s">
         <v>866</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>867</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" t="s">
         <v>207</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>208</v>
-      </c>
-      <c r="C27" t="s">
-        <v>209</v>
       </c>
       <c r="D27" t="s">
         <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F27">
         <v>2011</v>
       </c>
       <c r="G27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H27" t="s">
         <v>114</v>
       </c>
       <c r="I27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J27" t="s">
         <v>21</v>
@@ -4860,45 +4857,45 @@
         <v>23</v>
       </c>
       <c r="N27" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O27" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="P27" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q27" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" t="s">
         <v>213</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>214</v>
-      </c>
-      <c r="C28" t="s">
-        <v>215</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F28">
         <v>2009</v>
       </c>
       <c r="G28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H28" t="s">
         <v>114</v>
       </c>
       <c r="I28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J28" t="s">
         <v>21</v>
@@ -4913,45 +4910,45 @@
         <v>23</v>
       </c>
       <c r="N28" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O28" t="s">
+        <v>871</v>
+      </c>
+      <c r="P28" t="s">
+        <v>866</v>
+      </c>
+      <c r="Q28" t="s">
         <v>872</v>
-      </c>
-      <c r="P28" t="s">
-        <v>867</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" t="s">
         <v>219</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>220</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>221</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>222</v>
-      </c>
-      <c r="E29" t="s">
-        <v>223</v>
       </c>
       <c r="F29">
         <v>2011</v>
       </c>
       <c r="G29" t="s">
+        <v>223</v>
+      </c>
+      <c r="H29" t="s">
         <v>224</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>225</v>
-      </c>
-      <c r="I29" t="s">
-        <v>226</v>
       </c>
       <c r="J29" t="s">
         <v>21</v>
@@ -4966,42 +4963,42 @@
         <v>23</v>
       </c>
       <c r="N29" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O29" t="s">
+        <v>865</v>
+      </c>
+      <c r="P29" t="s">
         <v>866</v>
-      </c>
-      <c r="P29" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" t="s">
         <v>227</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>228</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>229</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>230</v>
-      </c>
-      <c r="E30" t="s">
-        <v>231</v>
       </c>
       <c r="F30">
         <v>2011</v>
       </c>
       <c r="G30" t="s">
+        <v>231</v>
+      </c>
+      <c r="H30" t="s">
         <v>232</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>233</v>
-      </c>
-      <c r="I30" t="s">
-        <v>234</v>
       </c>
       <c r="J30" t="s">
         <v>21</v>
@@ -5016,42 +5013,42 @@
         <v>23</v>
       </c>
       <c r="N30" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O30" t="s">
+        <v>865</v>
+      </c>
+      <c r="P30" t="s">
         <v>866</v>
-      </c>
-      <c r="P30" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" t="s">
         <v>235</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>236</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" t="s">
         <v>237</v>
-      </c>
-      <c r="D31" t="s">
-        <v>196</v>
-      </c>
-      <c r="E31" t="s">
-        <v>238</v>
       </c>
       <c r="F31">
         <v>2019</v>
       </c>
       <c r="G31" t="s">
+        <v>238</v>
+      </c>
+      <c r="H31" t="s">
+        <v>198</v>
+      </c>
+      <c r="I31" t="s">
         <v>239</v>
-      </c>
-      <c r="H31" t="s">
-        <v>199</v>
-      </c>
-      <c r="I31" t="s">
-        <v>240</v>
       </c>
       <c r="J31" t="s">
         <v>21</v>
@@ -5066,45 +5063,45 @@
         <v>23</v>
       </c>
       <c r="N31" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O31" t="s">
+        <v>873</v>
+      </c>
+      <c r="P31" t="s">
+        <v>866</v>
+      </c>
+      <c r="Q31" t="s">
         <v>874</v>
-      </c>
-      <c r="P31" t="s">
-        <v>867</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B32" t="s">
         <v>241</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>242</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>243</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>244</v>
-      </c>
-      <c r="E32" t="s">
-        <v>245</v>
       </c>
       <c r="F32">
         <v>2016</v>
       </c>
       <c r="G32" t="s">
+        <v>245</v>
+      </c>
+      <c r="H32" t="s">
         <v>246</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>247</v>
-      </c>
-      <c r="I32" t="s">
-        <v>248</v>
       </c>
       <c r="J32" t="s">
         <v>21</v>
@@ -5119,45 +5116,45 @@
         <v>23</v>
       </c>
       <c r="N32" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O32" t="s">
+        <v>876</v>
+      </c>
+      <c r="P32" t="s">
+        <v>866</v>
+      </c>
+      <c r="Q32" t="s">
         <v>877</v>
-      </c>
-      <c r="P32" t="s">
-        <v>867</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" t="s">
         <v>249</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>250</v>
-      </c>
-      <c r="C33" t="s">
-        <v>251</v>
       </c>
       <c r="D33" t="s">
         <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F33">
         <v>2015</v>
       </c>
       <c r="G33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H33" t="s">
         <v>54</v>
       </c>
       <c r="I33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J33" t="s">
         <v>21</v>
@@ -5172,45 +5169,45 @@
         <v>23</v>
       </c>
       <c r="N33" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O33" t="s">
+        <v>879</v>
+      </c>
+      <c r="P33" t="s">
+        <v>866</v>
+      </c>
+      <c r="Q33" t="s">
         <v>880</v>
-      </c>
-      <c r="P33" t="s">
-        <v>867</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" t="s">
         <v>255</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>256</v>
-      </c>
-      <c r="C34" t="s">
-        <v>257</v>
       </c>
       <c r="D34" t="s">
         <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F34">
         <v>2015</v>
       </c>
       <c r="G34" t="s">
+        <v>258</v>
+      </c>
+      <c r="H34" t="s">
         <v>259</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>260</v>
-      </c>
-      <c r="I34" t="s">
-        <v>261</v>
       </c>
       <c r="J34" t="s">
         <v>21</v>
@@ -5225,45 +5222,45 @@
         <v>23</v>
       </c>
       <c r="N34" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O34" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="P34" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q34" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="F35" s="1">
         <v>2014</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>21</v>
@@ -5278,42 +5275,42 @@
         <v>23</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>269</v>
+      </c>
+      <c r="B36" t="s">
         <v>270</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>271</v>
-      </c>
-      <c r="C36" t="s">
-        <v>272</v>
       </c>
       <c r="D36" t="s">
         <v>81</v>
       </c>
       <c r="E36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F36">
         <v>2014</v>
       </c>
       <c r="G36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H36" t="s">
         <v>84</v>
       </c>
       <c r="I36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J36" t="s">
         <v>21</v>
@@ -5328,45 +5325,45 @@
         <v>23</v>
       </c>
       <c r="N36" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O36" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="P36" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q36" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F37" s="2">
         <v>2000</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>21</v>
@@ -5381,45 +5378,45 @@
         <v>23</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O37" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="Q37" s="2" t="s">
         <v>884</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>281</v>
+      </c>
+      <c r="B38" t="s">
         <v>282</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>283</v>
-      </c>
-      <c r="C38" t="s">
-        <v>284</v>
       </c>
       <c r="D38" t="s">
         <v>111</v>
       </c>
       <c r="E38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F38">
         <v>2018</v>
       </c>
       <c r="G38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H38" t="s">
         <v>114</v>
       </c>
       <c r="I38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J38" t="s">
         <v>21</v>
@@ -5434,45 +5431,45 @@
         <v>23</v>
       </c>
       <c r="N38" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O38" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="P38" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q38" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>287</v>
+      </c>
+      <c r="B39" t="s">
         <v>288</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>289</v>
-      </c>
-      <c r="C39" t="s">
-        <v>290</v>
       </c>
       <c r="D39" t="s">
         <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F39">
         <v>2019</v>
       </c>
       <c r="G39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H39" t="s">
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J39" t="s">
         <v>21</v>
@@ -5487,42 +5484,42 @@
         <v>23</v>
       </c>
       <c r="N39" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O39" t="s">
+        <v>865</v>
+      </c>
+      <c r="P39" t="s">
         <v>866</v>
-      </c>
-      <c r="P39" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F40" s="1">
         <v>2015</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>21</v>
@@ -5537,42 +5534,42 @@
         <v>23</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>299</v>
+      </c>
+      <c r="B41" t="s">
         <v>300</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>301</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>302</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>303</v>
-      </c>
-      <c r="E41" t="s">
-        <v>304</v>
       </c>
       <c r="F41">
         <v>2015</v>
       </c>
       <c r="G41" t="s">
+        <v>304</v>
+      </c>
+      <c r="H41" t="s">
         <v>305</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>306</v>
-      </c>
-      <c r="I41" t="s">
-        <v>307</v>
       </c>
       <c r="J41" t="s">
         <v>21</v>
@@ -5587,51 +5584,51 @@
         <v>23</v>
       </c>
       <c r="N41" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O41" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="P41" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q41" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>307</v>
+      </c>
+      <c r="B42" t="s">
         <v>308</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>309</v>
-      </c>
-      <c r="C42" t="s">
-        <v>310</v>
       </c>
       <c r="D42" t="s">
         <v>103</v>
       </c>
       <c r="E42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F42">
         <v>2006</v>
       </c>
       <c r="G42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H42" t="s">
         <v>106</v>
       </c>
       <c r="I42" t="s">
+        <v>312</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" t="s">
         <v>313</v>
-      </c>
-      <c r="J42" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" t="s">
-        <v>314</v>
       </c>
       <c r="L42" t="s">
         <v>21</v>
@@ -5640,48 +5637,48 @@
         <v>23</v>
       </c>
       <c r="N42" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O42" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="P42" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F43" s="1">
         <v>2015</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>21</v>
@@ -5690,48 +5687,48 @@
         <v>23</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>320</v>
+      </c>
+      <c r="B44" t="s">
         <v>321</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>322</v>
-      </c>
-      <c r="C44" t="s">
-        <v>323</v>
       </c>
       <c r="D44" t="s">
         <v>111</v>
       </c>
       <c r="E44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F44">
         <v>2016</v>
       </c>
       <c r="G44" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H44" t="s">
         <v>114</v>
       </c>
       <c r="I44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J44" t="s">
         <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L44" t="s">
         <v>21</v>
@@ -5740,48 +5737,48 @@
         <v>23</v>
       </c>
       <c r="N44" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O44" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="P44" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>326</v>
+      </c>
+      <c r="B45" t="s">
         <v>327</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>328</v>
-      </c>
-      <c r="C45" t="s">
-        <v>329</v>
       </c>
       <c r="D45" t="s">
         <v>111</v>
       </c>
       <c r="E45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F45">
         <v>2019</v>
       </c>
       <c r="G45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H45" t="s">
         <v>114</v>
       </c>
       <c r="I45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J45" t="s">
         <v>21</v>
       </c>
       <c r="K45" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L45" t="s">
         <v>21</v>
@@ -5790,48 +5787,48 @@
         <v>23</v>
       </c>
       <c r="N45" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O45" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="P45" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>332</v>
+      </c>
+      <c r="B46" t="s">
         <v>333</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>334</v>
-      </c>
-      <c r="C46" t="s">
-        <v>335</v>
       </c>
       <c r="D46" t="s">
         <v>81</v>
       </c>
       <c r="E46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F46">
         <v>2012</v>
       </c>
       <c r="G46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H46" t="s">
         <v>84</v>
       </c>
       <c r="I46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J46" t="s">
         <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L46" t="s">
         <v>21</v>
@@ -5840,51 +5837,51 @@
         <v>23</v>
       </c>
       <c r="N46" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O46" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="P46" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="Q46" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>338</v>
+      </c>
+      <c r="B47" t="s">
         <v>339</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>340</v>
-      </c>
-      <c r="C47" t="s">
-        <v>341</v>
       </c>
       <c r="D47" t="s">
         <v>111</v>
       </c>
       <c r="E47" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F47">
         <v>2020</v>
       </c>
       <c r="G47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H47" t="s">
         <v>114</v>
       </c>
       <c r="I47" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J47" t="s">
         <v>21</v>
       </c>
       <c r="K47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L47" t="s">
         <v>21</v>
@@ -5893,51 +5890,51 @@
         <v>23</v>
       </c>
       <c r="N47" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O47" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="P47" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q47" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="48" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F48" s="1">
         <v>2012</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>21</v>
@@ -5946,48 +5943,48 @@
         <v>23</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>350</v>
+      </c>
+      <c r="B49" t="s">
         <v>351</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>352</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" t="s">
         <v>353</v>
-      </c>
-      <c r="D49" t="s">
-        <v>196</v>
-      </c>
-      <c r="E49" t="s">
-        <v>354</v>
       </c>
       <c r="F49">
         <v>2012</v>
       </c>
       <c r="G49" t="s">
+        <v>354</v>
+      </c>
+      <c r="H49" t="s">
+        <v>198</v>
+      </c>
+      <c r="I49" t="s">
         <v>355</v>
       </c>
-      <c r="H49" t="s">
-        <v>199</v>
-      </c>
-      <c r="I49" t="s">
-        <v>356</v>
-      </c>
       <c r="J49" t="s">
         <v>21</v>
       </c>
       <c r="K49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L49" t="s">
         <v>21</v>
@@ -5996,48 +5993,48 @@
         <v>23</v>
       </c>
       <c r="N49" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O49" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="P49" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>356</v>
+      </c>
+      <c r="B50" t="s">
         <v>357</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>358</v>
-      </c>
-      <c r="C50" t="s">
-        <v>359</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
       </c>
       <c r="E50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F50">
         <v>2014</v>
       </c>
       <c r="G50" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H50" t="s">
         <v>114</v>
       </c>
       <c r="I50" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J50" t="s">
         <v>21</v>
       </c>
       <c r="K50" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L50" t="s">
         <v>21</v>
@@ -6046,48 +6043,48 @@
         <v>23</v>
       </c>
       <c r="N50" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O50" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="P50" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>362</v>
+      </c>
+      <c r="B51" t="s">
         <v>363</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>364</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>365</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>366</v>
-      </c>
-      <c r="E51" t="s">
-        <v>367</v>
       </c>
       <c r="F51">
         <v>2007</v>
       </c>
       <c r="G51" t="s">
+        <v>367</v>
+      </c>
+      <c r="H51" t="s">
         <v>368</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>369</v>
       </c>
-      <c r="I51" t="s">
-        <v>370</v>
-      </c>
       <c r="J51" t="s">
         <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L51" t="s">
         <v>21</v>
@@ -6096,30 +6093,30 @@
         <v>23</v>
       </c>
       <c r="N51" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O51" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="P51" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="Q51" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>188</v>
@@ -6128,514 +6125,514 @@
         <v>2002</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="J52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>375</v>
+      </c>
+      <c r="B53" t="s">
         <v>376</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>377</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>378</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>379</v>
-      </c>
-      <c r="E53" t="s">
-        <v>380</v>
       </c>
       <c r="F53">
         <v>2014</v>
       </c>
       <c r="G53" t="s">
+        <v>380</v>
+      </c>
+      <c r="H53" t="s">
         <v>381</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>382</v>
       </c>
-      <c r="I53" t="s">
-        <v>383</v>
-      </c>
       <c r="J53" t="s">
         <v>21</v>
       </c>
       <c r="K53" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L53" t="s">
         <v>21</v>
       </c>
       <c r="M53" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N53" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O53" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="P53" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="54" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="F54" s="1">
         <v>2010</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="J54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F55" s="1">
         <v>2015</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>397</v>
+      </c>
+      <c r="B56" t="s">
         <v>398</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>399</v>
-      </c>
-      <c r="C56" t="s">
-        <v>400</v>
       </c>
       <c r="D56" t="s">
         <v>51</v>
       </c>
       <c r="E56" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F56">
         <v>2016</v>
       </c>
       <c r="G56" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H56" t="s">
         <v>54</v>
       </c>
       <c r="I56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J56" t="s">
         <v>21</v>
       </c>
       <c r="K56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L56" t="s">
         <v>21</v>
       </c>
       <c r="M56" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="P56" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F57" s="1">
         <v>2020</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I57" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="L57" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>410</v>
+      </c>
+      <c r="B58" t="s">
         <v>411</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>412</v>
-      </c>
-      <c r="C58" t="s">
-        <v>413</v>
       </c>
       <c r="D58" t="s">
         <v>81</v>
       </c>
       <c r="E58" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F58">
         <v>2017</v>
       </c>
       <c r="G58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H58" t="s">
         <v>84</v>
       </c>
       <c r="I58" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J58" t="s">
         <v>21</v>
       </c>
       <c r="K58" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L58" t="s">
         <v>21</v>
       </c>
       <c r="M58" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O58" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="P58" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q58" s="3"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>416</v>
+      </c>
+      <c r="B59" t="s">
         <v>417</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>418</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>419</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>420</v>
-      </c>
-      <c r="E59" t="s">
-        <v>421</v>
       </c>
       <c r="F59">
         <v>2020</v>
       </c>
       <c r="G59" t="s">
+        <v>421</v>
+      </c>
+      <c r="H59" t="s">
         <v>422</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>423</v>
       </c>
-      <c r="I59" t="s">
-        <v>424</v>
-      </c>
       <c r="J59" t="s">
         <v>21</v>
       </c>
       <c r="K59" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L59" t="s">
         <v>21</v>
       </c>
       <c r="M59" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O59" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="P59" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="F60" s="1">
         <v>2008</v>
       </c>
       <c r="G60" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="J60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>432</v>
+      </c>
+      <c r="B61" t="s">
         <v>433</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>434</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>435</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>436</v>
-      </c>
-      <c r="E61" t="s">
-        <v>437</v>
       </c>
       <c r="F61">
         <v>2015</v>
       </c>
       <c r="G61" t="s">
+        <v>437</v>
+      </c>
+      <c r="H61" t="s">
         <v>438</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>439</v>
       </c>
-      <c r="I61" t="s">
-        <v>440</v>
-      </c>
       <c r="J61" t="s">
         <v>21</v>
       </c>
       <c r="K61" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L61" t="s">
         <v>21</v>
       </c>
       <c r="M61" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="F62" s="1">
         <v>2018</v>
       </c>
       <c r="G62" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="J62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>21</v>
@@ -6644,45 +6641,45 @@
         <v>23</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>448</v>
+      </c>
+      <c r="B63" t="s">
+        <v>249</v>
+      </c>
+      <c r="C63" t="s">
         <v>449</v>
-      </c>
-      <c r="B63" t="s">
-        <v>250</v>
-      </c>
-      <c r="C63" t="s">
-        <v>450</v>
       </c>
       <c r="D63" t="s">
         <v>51</v>
       </c>
       <c r="E63" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F63">
         <v>2014</v>
       </c>
       <c r="G63" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H63" t="s">
         <v>54</v>
       </c>
       <c r="I63" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J63" t="s">
         <v>21</v>
       </c>
       <c r="K63" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L63" t="s">
         <v>21</v>
@@ -6691,48 +6688,48 @@
         <v>23</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>453</v>
+      </c>
+      <c r="B64" t="s">
         <v>454</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>455</v>
-      </c>
-      <c r="C64" t="s">
-        <v>456</v>
       </c>
       <c r="D64" t="s">
         <v>51</v>
       </c>
       <c r="E64" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F64">
         <v>2004</v>
       </c>
       <c r="G64" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H64" t="s">
         <v>54</v>
       </c>
       <c r="I64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J64" t="s">
         <v>21</v>
       </c>
       <c r="K64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L64" t="s">
         <v>21</v>
@@ -6741,51 +6738,51 @@
         <v>23</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>459</v>
+      </c>
+      <c r="B65" t="s">
         <v>460</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>461</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>462</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>463</v>
-      </c>
-      <c r="E65" t="s">
-        <v>464</v>
       </c>
       <c r="F65">
         <v>2017</v>
       </c>
       <c r="G65" t="s">
+        <v>464</v>
+      </c>
+      <c r="H65" t="s">
         <v>465</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>466</v>
       </c>
-      <c r="I65" t="s">
-        <v>467</v>
-      </c>
       <c r="J65" t="s">
         <v>21</v>
       </c>
       <c r="K65" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L65" t="s">
         <v>21</v>
@@ -6794,48 +6791,48 @@
         <v>23</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>467</v>
+      </c>
+      <c r="B66" t="s">
         <v>468</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>469</v>
-      </c>
-      <c r="C66" t="s">
-        <v>470</v>
       </c>
       <c r="D66" t="s">
         <v>111</v>
       </c>
       <c r="E66" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F66">
         <v>2018</v>
       </c>
       <c r="G66" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H66" t="s">
         <v>114</v>
       </c>
       <c r="I66" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J66" t="s">
         <v>21</v>
       </c>
       <c r="K66" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L66" t="s">
         <v>21</v>
@@ -6844,48 +6841,48 @@
         <v>23</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>473</v>
+      </c>
+      <c r="B67" t="s">
         <v>474</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>475</v>
-      </c>
-      <c r="C67" t="s">
-        <v>476</v>
       </c>
       <c r="D67" t="s">
         <v>81</v>
       </c>
       <c r="E67" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F67">
         <v>2018</v>
       </c>
       <c r="G67" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H67" t="s">
         <v>84</v>
       </c>
       <c r="I67" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J67" t="s">
         <v>21</v>
       </c>
       <c r="K67" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L67" t="s">
         <v>21</v>
@@ -6894,51 +6891,51 @@
         <v>23</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="F68" s="1">
         <v>2017</v>
       </c>
       <c r="G68" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>487</v>
-      </c>
       <c r="J68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>21</v>
@@ -6947,48 +6944,48 @@
         <v>23</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F69" s="1">
         <v>2014</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>21</v>
@@ -6997,48 +6994,48 @@
         <v>23</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>497</v>
       </c>
       <c r="F70" s="1">
         <v>2015</v>
       </c>
       <c r="G70" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>499</v>
-      </c>
       <c r="J70" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>21</v>
@@ -7047,27 +7044,27 @@
         <v>23</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>188</v>
@@ -7076,66 +7073,66 @@
         <v>2005</v>
       </c>
       <c r="G71" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="I71" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>506</v>
-      </c>
       <c r="J71" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M71" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="Q71" s="1" t="s">
         <v>858</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="72" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="F72" s="1">
         <v>2011</v>
       </c>
       <c r="G72" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>514</v>
-      </c>
       <c r="J72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>21</v>
@@ -7144,48 +7141,48 @@
         <v>23</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F73" s="1">
         <v>2011</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I73" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>520</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>521</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>21</v>
@@ -7194,98 +7191,98 @@
         <v>23</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="F74" s="1">
         <v>2015</v>
       </c>
       <c r="G74" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="J74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="L74" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P74" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="Q74" s="1" t="s">
         <v>916</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>535</v>
       </c>
       <c r="F75" s="3">
         <v>2018</v>
       </c>
       <c r="G75" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="I75" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="J75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>21</v>
@@ -7296,37 +7293,37 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>539</v>
+      </c>
+      <c r="B76" t="s">
         <v>540</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>541</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>264</v>
+      </c>
+      <c r="E76" t="s">
         <v>542</v>
-      </c>
-      <c r="D76" t="s">
-        <v>265</v>
-      </c>
-      <c r="E76" t="s">
-        <v>543</v>
       </c>
       <c r="F76">
         <v>2015</v>
       </c>
       <c r="G76" t="s">
+        <v>543</v>
+      </c>
+      <c r="H76" t="s">
+        <v>267</v>
+      </c>
+      <c r="I76" t="s">
         <v>544</v>
       </c>
-      <c r="H76" t="s">
-        <v>268</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" t="s">
         <v>545</v>
-      </c>
-      <c r="J76" t="s">
-        <v>21</v>
-      </c>
-      <c r="K76" t="s">
-        <v>546</v>
       </c>
       <c r="L76" t="s">
         <v>21</v>
@@ -7337,37 +7334,37 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>546</v>
+      </c>
+      <c r="B77" t="s">
         <v>547</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>548</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>549</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>550</v>
-      </c>
-      <c r="E77" t="s">
-        <v>551</v>
       </c>
       <c r="F77">
         <v>2017</v>
       </c>
       <c r="G77" t="s">
+        <v>551</v>
+      </c>
+      <c r="H77" t="s">
         <v>552</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>553</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
+        <v>21</v>
+      </c>
+      <c r="K77" t="s">
         <v>554</v>
-      </c>
-      <c r="J77" t="s">
-        <v>21</v>
-      </c>
-      <c r="K77" t="s">
-        <v>555</v>
       </c>
       <c r="L77" t="s">
         <v>21</v>
@@ -7378,37 +7375,37 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>555</v>
+      </c>
+      <c r="B78" t="s">
         <v>556</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>557</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>558</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>559</v>
-      </c>
-      <c r="E78" t="s">
-        <v>560</v>
       </c>
       <c r="F78">
         <v>2020</v>
       </c>
       <c r="G78" t="s">
+        <v>560</v>
+      </c>
+      <c r="H78" t="s">
         <v>561</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>562</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78" t="s">
         <v>563</v>
-      </c>
-      <c r="J78" t="s">
-        <v>21</v>
-      </c>
-      <c r="K78" t="s">
-        <v>564</v>
       </c>
       <c r="L78" t="s">
         <v>21</v>
@@ -7419,72 +7416,72 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>564</v>
+      </c>
+      <c r="B79" t="s">
         <v>565</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>566</v>
-      </c>
-      <c r="C79" t="s">
-        <v>567</v>
       </c>
       <c r="D79" t="s">
         <v>171</v>
       </c>
       <c r="E79" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F79">
         <v>2016</v>
       </c>
       <c r="G79" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H79" t="s">
         <v>174</v>
       </c>
       <c r="I79" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J79" t="s">
         <v>21</v>
       </c>
       <c r="K79" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L79" t="s">
         <v>21</v>
       </c>
       <c r="M79" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="80" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="F80" s="1">
         <v>2018</v>
       </c>
       <c r="G80" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>578</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>21</v>
@@ -7499,27 +7496,27 @@
         <v>23</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="81" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>188</v>
@@ -7528,795 +7525,795 @@
         <v>2007</v>
       </c>
       <c r="G81" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="J81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="J81" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>586</v>
-      </c>
       <c r="L81" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M81" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q81" s="1" t="s">
         <v>858</v>
-      </c>
-      <c r="Q81" s="1" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>586</v>
+      </c>
+      <c r="B82" t="s">
         <v>587</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>588</v>
-      </c>
-      <c r="C82" t="s">
-        <v>589</v>
       </c>
       <c r="D82" t="s">
         <v>35</v>
       </c>
       <c r="E82" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F82">
         <v>2020</v>
       </c>
       <c r="G82" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H82" t="s">
         <v>38</v>
       </c>
       <c r="I82" t="s">
+        <v>591</v>
+      </c>
+      <c r="J82" t="s">
+        <v>21</v>
+      </c>
+      <c r="K82" t="s">
         <v>592</v>
       </c>
-      <c r="J82" t="s">
-        <v>21</v>
-      </c>
-      <c r="K82" t="s">
-        <v>593</v>
-      </c>
       <c r="L82" t="s">
         <v>21</v>
       </c>
       <c r="M82" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>593</v>
+      </c>
+      <c r="B83" t="s">
         <v>594</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>595</v>
-      </c>
-      <c r="C83" t="s">
-        <v>596</v>
       </c>
       <c r="D83" t="s">
         <v>51</v>
       </c>
       <c r="E83" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F83">
         <v>2009</v>
       </c>
       <c r="G83" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H83" t="s">
         <v>54</v>
       </c>
       <c r="I83" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J83" t="s">
         <v>21</v>
       </c>
       <c r="K83" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L83" t="s">
         <v>21</v>
       </c>
       <c r="M83" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>599</v>
+      </c>
+      <c r="B84" t="s">
         <v>600</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>601</v>
-      </c>
-      <c r="C84" t="s">
-        <v>602</v>
       </c>
       <c r="D84" t="s">
         <v>111</v>
       </c>
       <c r="E84" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F84">
         <v>2003</v>
       </c>
       <c r="G84" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H84" t="s">
         <v>114</v>
       </c>
       <c r="I84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J84" t="s">
         <v>21</v>
       </c>
       <c r="K84" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L84" t="s">
         <v>21</v>
       </c>
       <c r="M84" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>605</v>
+      </c>
+      <c r="B85" t="s">
         <v>606</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>607</v>
-      </c>
-      <c r="C85" t="s">
-        <v>608</v>
       </c>
       <c r="D85" t="s">
         <v>111</v>
       </c>
       <c r="E85" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F85">
         <v>2020</v>
       </c>
       <c r="G85" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H85" t="s">
         <v>114</v>
       </c>
       <c r="I85" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J85" t="s">
         <v>21</v>
       </c>
       <c r="K85" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L85" t="s">
         <v>21</v>
       </c>
       <c r="M85" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>611</v>
+      </c>
+      <c r="B86" t="s">
         <v>612</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>613</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>614</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>615</v>
-      </c>
-      <c r="E86" t="s">
-        <v>616</v>
       </c>
       <c r="F86">
         <v>2016</v>
       </c>
       <c r="G86" t="s">
+        <v>616</v>
+      </c>
+      <c r="H86" t="s">
         <v>617</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>618</v>
       </c>
-      <c r="I86" t="s">
-        <v>619</v>
-      </c>
       <c r="J86" t="s">
         <v>21</v>
       </c>
       <c r="K86" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L86" t="s">
         <v>21</v>
       </c>
       <c r="M86" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>619</v>
+      </c>
+      <c r="B87" t="s">
         <v>620</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>621</v>
-      </c>
-      <c r="C87" t="s">
-        <v>622</v>
       </c>
       <c r="D87" t="s">
         <v>35</v>
       </c>
       <c r="E87" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F87">
         <v>2009</v>
       </c>
       <c r="G87" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H87" t="s">
         <v>38</v>
       </c>
       <c r="I87" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J87" t="s">
         <v>21</v>
       </c>
       <c r="K87" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L87" t="s">
         <v>21</v>
       </c>
       <c r="M87" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>625</v>
+      </c>
+      <c r="B88" t="s">
         <v>626</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>627</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>628</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>629</v>
-      </c>
-      <c r="E88" t="s">
-        <v>630</v>
       </c>
       <c r="F88">
         <v>2014</v>
       </c>
       <c r="G88" t="s">
+        <v>630</v>
+      </c>
+      <c r="H88" t="s">
         <v>631</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>632</v>
       </c>
-      <c r="I88" t="s">
-        <v>633</v>
-      </c>
       <c r="J88" t="s">
         <v>21</v>
       </c>
       <c r="K88" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L88" t="s">
         <v>21</v>
       </c>
       <c r="M88" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>633</v>
+      </c>
+      <c r="B89" t="s">
         <v>634</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>635</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>636</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>637</v>
-      </c>
-      <c r="E89" t="s">
-        <v>638</v>
       </c>
       <c r="F89">
         <v>1995</v>
       </c>
       <c r="G89" t="s">
+        <v>638</v>
+      </c>
+      <c r="H89" t="s">
         <v>639</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>640</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
+        <v>21</v>
+      </c>
+      <c r="K89" t="s">
         <v>641</v>
       </c>
-      <c r="J89" t="s">
-        <v>21</v>
-      </c>
-      <c r="K89" t="s">
-        <v>642</v>
-      </c>
       <c r="L89" t="s">
         <v>21</v>
       </c>
       <c r="M89" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>642</v>
+      </c>
+      <c r="B90" t="s">
         <v>643</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>644</v>
-      </c>
-      <c r="C90" t="s">
-        <v>645</v>
       </c>
       <c r="D90" t="s">
         <v>111</v>
       </c>
       <c r="E90" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F90">
         <v>2017</v>
       </c>
       <c r="G90" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H90" t="s">
         <v>114</v>
       </c>
       <c r="I90" t="s">
+        <v>647</v>
+      </c>
+      <c r="J90" t="s">
+        <v>21</v>
+      </c>
+      <c r="K90" t="s">
         <v>648</v>
       </c>
-      <c r="J90" t="s">
-        <v>21</v>
-      </c>
-      <c r="K90" t="s">
-        <v>649</v>
-      </c>
       <c r="L90" t="s">
         <v>21</v>
       </c>
       <c r="M90" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>649</v>
+      </c>
+      <c r="B91" t="s">
         <v>650</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>651</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>652</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>653</v>
-      </c>
-      <c r="E91" t="s">
-        <v>654</v>
       </c>
       <c r="F91">
         <v>1995</v>
       </c>
       <c r="G91" t="s">
+        <v>654</v>
+      </c>
+      <c r="H91" t="s">
         <v>655</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>656</v>
       </c>
-      <c r="I91" t="s">
-        <v>657</v>
-      </c>
       <c r="J91" t="s">
         <v>21</v>
       </c>
       <c r="K91" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L91" t="s">
         <v>21</v>
       </c>
       <c r="M91" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>657</v>
+      </c>
+      <c r="B92" t="s">
         <v>658</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>659</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>660</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>661</v>
-      </c>
-      <c r="E92" t="s">
-        <v>662</v>
       </c>
       <c r="F92">
         <v>2016</v>
       </c>
       <c r="G92" t="s">
+        <v>662</v>
+      </c>
+      <c r="H92" t="s">
         <v>663</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>664</v>
       </c>
-      <c r="I92" t="s">
-        <v>665</v>
-      </c>
       <c r="J92" t="s">
         <v>21</v>
       </c>
       <c r="K92" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L92" t="s">
         <v>21</v>
       </c>
       <c r="M92" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>665</v>
+      </c>
+      <c r="B93" t="s">
         <v>666</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>667</v>
-      </c>
-      <c r="C93" t="s">
-        <v>668</v>
       </c>
       <c r="D93" t="s">
         <v>111</v>
       </c>
       <c r="E93" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F93">
         <v>2017</v>
       </c>
       <c r="G93" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H93" t="s">
         <v>114</v>
       </c>
       <c r="I93" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J93" t="s">
         <v>21</v>
       </c>
       <c r="K93" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L93" t="s">
         <v>21</v>
       </c>
       <c r="M93" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>671</v>
+      </c>
+      <c r="B94" t="s">
         <v>672</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>673</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>674</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>675</v>
-      </c>
-      <c r="E94" t="s">
-        <v>676</v>
       </c>
       <c r="F94">
         <v>2019</v>
       </c>
       <c r="G94" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H94" t="s">
         <v>188</v>
       </c>
       <c r="I94" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J94" t="s">
         <v>21</v>
       </c>
       <c r="K94" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L94" t="s">
         <v>21</v>
       </c>
       <c r="M94" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>678</v>
+      </c>
+      <c r="B95" t="s">
         <v>679</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>680</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>681</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>682</v>
-      </c>
-      <c r="E95" t="s">
-        <v>683</v>
       </c>
       <c r="F95">
         <v>2017</v>
       </c>
       <c r="G95" t="s">
+        <v>683</v>
+      </c>
+      <c r="H95" t="s">
         <v>684</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>685</v>
       </c>
-      <c r="I95" t="s">
-        <v>686</v>
-      </c>
       <c r="J95" t="s">
         <v>21</v>
       </c>
       <c r="K95" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L95" t="s">
         <v>21</v>
       </c>
       <c r="M95" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>686</v>
+      </c>
+      <c r="B96" t="s">
         <v>687</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>688</v>
-      </c>
-      <c r="C96" t="s">
-        <v>689</v>
       </c>
       <c r="D96" t="s">
         <v>35</v>
       </c>
       <c r="E96" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F96">
         <v>2016</v>
       </c>
       <c r="G96" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H96" t="s">
         <v>38</v>
       </c>
       <c r="I96" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J96" t="s">
         <v>21</v>
       </c>
       <c r="K96" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L96" t="s">
         <v>21</v>
       </c>
       <c r="M96" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="97" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>696</v>
       </c>
       <c r="F97" s="1">
         <v>2017</v>
       </c>
       <c r="G97" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="I97" s="1" t="s">
+      <c r="J97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K97" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="J97" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>699</v>
-      </c>
       <c r="L97" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M97" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="Q97" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="Q97" s="1" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>699</v>
+      </c>
+      <c r="B98" t="s">
         <v>700</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>701</v>
-      </c>
-      <c r="C98" t="s">
-        <v>702</v>
       </c>
       <c r="D98" t="s">
         <v>51</v>
       </c>
       <c r="E98" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F98">
         <v>2018</v>
       </c>
       <c r="G98" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H98" t="s">
         <v>54</v>
       </c>
       <c r="I98" t="s">
+        <v>704</v>
+      </c>
+      <c r="J98" t="s">
+        <v>21</v>
+      </c>
+      <c r="K98" t="s">
         <v>705</v>
       </c>
-      <c r="J98" t="s">
-        <v>21</v>
-      </c>
-      <c r="K98" t="s">
-        <v>706</v>
-      </c>
       <c r="L98" t="s">
         <v>21</v>
       </c>
       <c r="M98" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="99" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>709</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F99" s="1">
         <v>2017</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I99" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K99" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="J99" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>713</v>
-      </c>
       <c r="L99" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="100" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>716</v>
-      </c>
       <c r="D100" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>188</v>
@@ -8325,245 +8322,245 @@
         <v>2005</v>
       </c>
       <c r="G100" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="I100" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="I100" s="1" t="s">
+      <c r="J100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K100" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="J100" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>719</v>
-      </c>
       <c r="L100" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="101" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>724</v>
       </c>
       <c r="F101" s="1">
         <v>2010</v>
       </c>
       <c r="G101" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="I101" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="J101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K101" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="J101" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>728</v>
-      </c>
       <c r="L101" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="102" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>731</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F102" s="1">
         <v>2018</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>106</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P102" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="Q102" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>739</v>
       </c>
       <c r="F103" s="1">
         <v>2019</v>
       </c>
       <c r="G103" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="I103" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="I103" s="1" t="s">
-        <v>742</v>
-      </c>
       <c r="J103" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="104" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>747</v>
       </c>
       <c r="F104" s="1">
         <v>2001</v>
       </c>
       <c r="G104" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="I104" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="I104" s="1" t="s">
-        <v>750</v>
-      </c>
       <c r="J104" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="105" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>753</v>
-      </c>
       <c r="D105" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>188</v>
@@ -8572,369 +8569,369 @@
         <v>2000</v>
       </c>
       <c r="G105" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I105" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>755</v>
-      </c>
       <c r="J105" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="106" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>760</v>
       </c>
       <c r="F106" s="1">
         <v>2016</v>
       </c>
       <c r="G106" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="I106" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="I106" s="1" t="s">
-        <v>763</v>
-      </c>
       <c r="J106" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="107" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>766</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F107" s="1">
         <v>2019</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="108" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>774</v>
       </c>
       <c r="F108" s="1">
         <v>2014</v>
       </c>
       <c r="G108" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="I108" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="I108" s="1" t="s">
-        <v>777</v>
-      </c>
       <c r="J108" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="109" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>782</v>
       </c>
       <c r="F109" s="1">
         <v>1999</v>
       </c>
       <c r="G109" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="I109" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="I109" s="1" t="s">
-        <v>785</v>
-      </c>
       <c r="J109" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="110" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>788</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F110" s="1">
         <v>2010</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="111" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>796</v>
       </c>
       <c r="F111" s="1">
         <v>1995</v>
       </c>
       <c r="G111" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="H111" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="I111" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="I111" s="1" t="s">
-        <v>799</v>
-      </c>
       <c r="J111" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="112" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>804</v>
       </c>
       <c r="F112" s="1">
         <v>2009</v>
       </c>
       <c r="G112" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="I112" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="I112" s="1" t="s">
-        <v>807</v>
-      </c>
       <c r="J112" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>21</v>
@@ -8943,27 +8940,27 @@
         <v>23</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="113" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>810</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>811</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>188</v>
@@ -8972,19 +8969,19 @@
         <v>2009</v>
       </c>
       <c r="G113" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="H113" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="I113" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="I113" s="1" t="s">
-        <v>814</v>
-      </c>
       <c r="J113" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>21</v>
@@ -8993,310 +8990,310 @@
         <v>23</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="114" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>818</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>819</v>
       </c>
       <c r="F114" s="1">
         <v>2018</v>
       </c>
       <c r="G114" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="H114" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="H114" s="1" t="s">
+      <c r="I114" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="I114" s="1" t="s">
-        <v>822</v>
-      </c>
       <c r="J114" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="115" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>825</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F115" s="1">
         <v>2005</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="116" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>831</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F116" s="1">
         <v>2019</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I116" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K116" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="J116" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>835</v>
-      </c>
       <c r="L116" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="117" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>838</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F117" s="1">
         <v>2016</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I117" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K117" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="J117" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>842</v>
-      </c>
       <c r="L117" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="118" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>844</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>845</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F118" s="1">
         <v>2014</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>21</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>848</v>
+      </c>
+      <c r="B119" t="s">
         <v>849</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>850</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>851</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>852</v>
-      </c>
-      <c r="E119" t="s">
-        <v>853</v>
       </c>
       <c r="F119">
         <v>2020</v>
       </c>
       <c r="G119" t="s">
+        <v>853</v>
+      </c>
+      <c r="H119" t="s">
         <v>854</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>855</v>
       </c>
-      <c r="I119" t="s">
+      <c r="J119" t="s">
+        <v>21</v>
+      </c>
+      <c r="K119" t="s">
+        <v>841</v>
+      </c>
+      <c r="L119" t="s">
+        <v>21</v>
+      </c>
+      <c r="M119" t="s">
         <v>856</v>
       </c>
-      <c r="J119" t="s">
-        <v>21</v>
-      </c>
-      <c r="K119" t="s">
-        <v>842</v>
-      </c>
-      <c r="L119" t="s">
-        <v>21</v>
-      </c>
-      <c r="M119" t="s">
-        <v>857</v>
-      </c>
       <c r="N119" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="P119" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
   </sheetData>

--- a/data extraction /lit search metadata /wos176_final.xlsx
+++ b/data extraction /lit search metadata /wos176_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55B043E-6D86-6D47-8E38-1EF3CC7A6840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB8E27F-8B80-C140-8234-3B55A3BE853E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="460" windowWidth="25300" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28820" yWindow="-10880" windowWidth="23980" windowHeight="10600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wos176_final" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="937">
   <si>
     <t>label</t>
   </si>
@@ -2624,9 +2624,6 @@
     <t xml:space="preserve">organismal </t>
   </si>
   <si>
-    <t xml:space="preserve">unsure about the responses reported here </t>
-  </si>
-  <si>
     <t>figure 1, 2</t>
   </si>
   <si>
@@ -2829,6 +2826,12 @@
   </si>
   <si>
     <t xml:space="preserve">constant temp treatments, no variation pattern </t>
+  </si>
+  <si>
+    <t>extracted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results report simply model based data </t>
   </si>
 </sst>
 </file>
@@ -3687,16 +3690,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q119"/>
+  <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3748,8 +3751,11 @@
       <c r="Q1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3790,7 +3796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -3831,7 +3837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -3872,7 +3878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -3913,7 +3919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -3954,7 +3960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -3995,7 +4001,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -4036,7 +4042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -4077,7 +4083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -4118,7 +4124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -4159,7 +4165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -4200,7 +4206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -4241,7 +4247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -4282,7 +4288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -4323,7 +4329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -4364,7 +4370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -4405,7 +4411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -4446,7 +4452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>144</v>
       </c>
@@ -4487,7 +4493,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -4528,7 +4534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>161</v>
       </c>
@@ -4569,7 +4575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>168</v>
       </c>
@@ -4610,7 +4616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>177</v>
       </c>
@@ -4659,8 +4665,11 @@
       <c r="P23" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R23" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>184</v>
       </c>
@@ -4710,113 +4719,116 @@
         <v>866</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>2007</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="J25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="J25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L25" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="L25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N25" t="s">
-        <v>856</v>
-      </c>
-      <c r="O25" t="s">
-        <v>869</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="N25" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="Q25" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>1991</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="J26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L26" t="s">
-        <v>21</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="L26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N26" t="s">
-        <v>856</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="N26" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="Q26" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q26" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>206</v>
       </c>
@@ -4860,16 +4872,16 @@
         <v>856</v>
       </c>
       <c r="O27" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="P27" t="s">
         <v>866</v>
       </c>
       <c r="Q27" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>212</v>
       </c>
@@ -4913,16 +4925,16 @@
         <v>856</v>
       </c>
       <c r="O28" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="P28" t="s">
         <v>866</v>
       </c>
       <c r="Q28" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>218</v>
       </c>
@@ -4972,7 +4984,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>226</v>
       </c>
@@ -5022,7 +5034,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>234</v>
       </c>
@@ -5066,16 +5078,16 @@
         <v>856</v>
       </c>
       <c r="O31" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="P31" t="s">
         <v>866</v>
       </c>
       <c r="Q31" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>240</v>
       </c>
@@ -5119,16 +5131,16 @@
         <v>856</v>
       </c>
       <c r="O32" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="P32" t="s">
         <v>866</v>
       </c>
       <c r="Q32" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>248</v>
       </c>
@@ -5172,16 +5184,16 @@
         <v>856</v>
       </c>
       <c r="O33" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="P33" t="s">
         <v>866</v>
       </c>
       <c r="Q33" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>254</v>
       </c>
@@ -5225,16 +5237,16 @@
         <v>856</v>
       </c>
       <c r="O34" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="P34" t="s">
         <v>866</v>
       </c>
       <c r="Q34" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>261</v>
       </c>
@@ -5281,10 +5293,10 @@
         <v>866</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>269</v>
       </c>
@@ -5334,10 +5346,10 @@
         <v>866</v>
       </c>
       <c r="Q36" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>275</v>
       </c>
@@ -5381,16 +5393,16 @@
         <v>856</v>
       </c>
       <c r="O37" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="Q37" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="P37" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>281</v>
       </c>
@@ -5434,16 +5446,16 @@
         <v>856</v>
       </c>
       <c r="O38" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="P38" t="s">
         <v>866</v>
       </c>
       <c r="Q38" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>287</v>
       </c>
@@ -5493,7 +5505,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>293</v>
       </c>
@@ -5540,10 +5552,10 @@
         <v>866</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>299</v>
       </c>
@@ -5587,16 +5599,16 @@
         <v>856</v>
       </c>
       <c r="O41" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="P41" t="s">
         <v>866</v>
       </c>
       <c r="Q41" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>307</v>
       </c>
@@ -5640,13 +5652,16 @@
         <v>856</v>
       </c>
       <c r="O42" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="P42" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R42" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>314</v>
       </c>
@@ -5693,10 +5708,10 @@
         <v>866</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>320</v>
       </c>
@@ -5740,13 +5755,13 @@
         <v>856</v>
       </c>
       <c r="O44" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="P44" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>326</v>
       </c>
@@ -5796,7 +5811,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>332</v>
       </c>
@@ -5840,16 +5855,16 @@
         <v>856</v>
       </c>
       <c r="O46" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="P46" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="Q46" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>338</v>
       </c>
@@ -5893,16 +5908,16 @@
         <v>856</v>
       </c>
       <c r="O47" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="P47" t="s">
         <v>866</v>
       </c>
       <c r="Q47" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>344</v>
       </c>
@@ -5949,7 +5964,7 @@
         <v>866</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -5996,7 +6011,7 @@
         <v>856</v>
       </c>
       <c r="O49" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="P49" t="s">
         <v>866</v>
@@ -6046,7 +6061,7 @@
         <v>856</v>
       </c>
       <c r="O50" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="P50" t="s">
         <v>866</v>
@@ -6096,13 +6111,13 @@
         <v>856</v>
       </c>
       <c r="O51" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="P51" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="Q51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6149,7 +6164,7 @@
         <v>859</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -6196,7 +6211,7 @@
         <v>856</v>
       </c>
       <c r="O53" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="P53" t="s">
         <v>866</v>
@@ -6246,7 +6261,7 @@
         <v>859</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6293,7 +6308,7 @@
         <v>859</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -6340,13 +6355,13 @@
         <v>856</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="P56" t="s">
         <v>866</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6393,7 +6408,7 @@
         <v>859</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -6440,7 +6455,7 @@
         <v>856</v>
       </c>
       <c r="O58" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="P58" t="s">
         <v>866</v>
@@ -6491,13 +6506,13 @@
         <v>856</v>
       </c>
       <c r="O59" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="P59" t="s">
         <v>866</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6544,7 +6559,7 @@
         <v>859</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -6591,13 +6606,13 @@
         <v>856</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="P61" s="3" t="s">
         <v>866</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6644,7 +6659,7 @@
         <v>859</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -6691,7 +6706,7 @@
         <v>856</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>866</v>
@@ -6741,13 +6756,13 @@
         <v>856</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>866</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -6794,7 +6809,7 @@
         <v>856</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>866</v>
@@ -6844,7 +6859,7 @@
         <v>856</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>866</v>
@@ -6894,13 +6909,13 @@
         <v>856</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>866</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6950,7 +6965,7 @@
         <v>866</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7000,7 +7015,7 @@
         <v>866</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7050,7 +7065,7 @@
         <v>866</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7147,7 +7162,7 @@
         <v>866</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7197,7 +7212,7 @@
         <v>866</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7244,10 +7259,10 @@
         <v>859</v>
       </c>
       <c r="P74" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q74" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7499,10 +7514,10 @@
         <v>859</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="81" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8296,10 +8311,10 @@
         <v>859</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="100" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8393,10 +8408,10 @@
         <v>859</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="102" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8443,10 +8458,10 @@
         <v>859</v>
       </c>
       <c r="P102" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="Q102" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8493,10 +8508,10 @@
         <v>859</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="104" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8543,10 +8558,10 @@
         <v>859</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="105" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8593,10 +8608,10 @@
         <v>859</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="106" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8643,10 +8658,10 @@
         <v>859</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="107" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8693,10 +8708,10 @@
         <v>859</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="108" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8743,10 +8758,10 @@
         <v>859</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="109" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8793,10 +8808,10 @@
         <v>859</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="110" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8843,10 +8858,10 @@
         <v>859</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="111" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8893,10 +8908,10 @@
         <v>859</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="112" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8943,7 +8958,7 @@
         <v>859</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="Q112" s="1" t="s">
         <v>641</v>
@@ -8993,10 +9008,10 @@
         <v>859</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="114" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9043,10 +9058,10 @@
         <v>859</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="115" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9093,10 +9108,10 @@
         <v>859</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="116" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9143,7 +9158,7 @@
         <v>859</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="117" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9190,10 +9205,10 @@
         <v>859</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="118" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9240,10 +9255,10 @@
         <v>859</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -9290,10 +9305,10 @@
         <v>856</v>
       </c>
       <c r="P119" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
   </sheetData>

--- a/data extraction /lit search metadata /wos176_final.xlsx
+++ b/data extraction /lit search metadata /wos176_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB8E27F-8B80-C140-8234-3B55A3BE853E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26669599-C536-8C46-8936-E12AEF3E768A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="-10880" windowWidth="23980" windowHeight="10600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-19940" windowWidth="23980" windowHeight="10600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wos176_final" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="938">
   <si>
     <t>label</t>
   </si>
@@ -2630,15 +2630,9 @@
     <t>figure 1,2</t>
   </si>
   <si>
-    <t>unsure about the temperature variation pattern in this study</t>
-  </si>
-  <si>
     <t>figure 3, 4</t>
   </si>
   <si>
-    <t>missing n for figure 3</t>
-  </si>
-  <si>
     <t>figure 2, 3</t>
   </si>
   <si>
@@ -2832,6 +2826,15 @@
   </si>
   <si>
     <t xml:space="preserve">results report simply model based data </t>
+  </si>
+  <si>
+    <t>reared at fluctuating temperatures, and exposed to constant temperatures for thermal performance curve (acclimation?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no sample size or error measurement reported, response listed as percentage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pulse/press experiment, can't seem to find sample size but there are error bars indicated standard deviation </t>
   </si>
 </sst>
 </file>
@@ -3693,8 +3696,8 @@
   <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD26"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3752,7 +3755,7 @@
         <v>10</v>
       </c>
       <c r="R1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -4657,7 +4660,7 @@
         <v>23</v>
       </c>
       <c r="N23" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="O23" t="s">
         <v>864</v>
@@ -4665,8 +4668,11 @@
       <c r="P23" t="s">
         <v>866</v>
       </c>
+      <c r="Q23" t="s">
+        <v>935</v>
+      </c>
       <c r="R23" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4719,7 +4725,7 @@
         <v>866</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4772,7 +4778,7 @@
         <v>866</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4825,7 +4831,7 @@
         <v>866</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -4869,7 +4875,7 @@
         <v>23</v>
       </c>
       <c r="N27" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="O27" t="s">
         <v>867</v>
@@ -4878,7 +4884,7 @@
         <v>866</v>
       </c>
       <c r="Q27" t="s">
-        <v>869</v>
+        <v>937</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -4925,13 +4931,13 @@
         <v>856</v>
       </c>
       <c r="O28" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="P28" t="s">
         <v>866</v>
       </c>
-      <c r="Q28" t="s">
-        <v>871</v>
+      <c r="R28" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -5033,6 +5039,9 @@
       <c r="P30" t="s">
         <v>866</v>
       </c>
+      <c r="R30" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -5078,13 +5087,13 @@
         <v>856</v>
       </c>
       <c r="O31" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="P31" t="s">
         <v>866</v>
       </c>
       <c r="Q31" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -5131,13 +5140,13 @@
         <v>856</v>
       </c>
       <c r="O32" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="P32" t="s">
         <v>866</v>
       </c>
       <c r="Q32" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -5184,13 +5193,13 @@
         <v>856</v>
       </c>
       <c r="O33" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="P33" t="s">
         <v>866</v>
       </c>
       <c r="Q33" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -5243,7 +5252,7 @@
         <v>866</v>
       </c>
       <c r="Q34" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5293,7 +5302,7 @@
         <v>866</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -5346,7 +5355,7 @@
         <v>866</v>
       </c>
       <c r="Q36" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5393,13 +5402,13 @@
         <v>856</v>
       </c>
       <c r="O37" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="P37" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="P37" s="2" t="s">
-        <v>884</v>
-      </c>
       <c r="Q37" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -5446,13 +5455,13 @@
         <v>856</v>
       </c>
       <c r="O38" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="P38" t="s">
         <v>866</v>
       </c>
       <c r="Q38" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
@@ -5552,7 +5561,7 @@
         <v>866</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -5605,7 +5614,7 @@
         <v>866</v>
       </c>
       <c r="Q41" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
@@ -5649,16 +5658,19 @@
         <v>23</v>
       </c>
       <c r="N42" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="O42" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="P42" t="s">
         <v>866</v>
       </c>
+      <c r="Q42" t="s">
+        <v>936</v>
+      </c>
       <c r="R42" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="43" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5708,7 +5720,7 @@
         <v>866</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -5755,7 +5767,7 @@
         <v>856</v>
       </c>
       <c r="O44" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="P44" t="s">
         <v>866</v>
@@ -5855,13 +5867,13 @@
         <v>856</v>
       </c>
       <c r="O46" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="P46" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="Q46" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -5908,13 +5920,13 @@
         <v>856</v>
       </c>
       <c r="O47" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="P47" t="s">
         <v>866</v>
       </c>
       <c r="Q47" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5964,7 +5976,7 @@
         <v>866</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -6011,7 +6023,7 @@
         <v>856</v>
       </c>
       <c r="O49" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="P49" t="s">
         <v>866</v>
@@ -6061,7 +6073,7 @@
         <v>856</v>
       </c>
       <c r="O50" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="P50" t="s">
         <v>866</v>
@@ -6111,13 +6123,13 @@
         <v>856</v>
       </c>
       <c r="O51" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="P51" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="Q51" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6164,7 +6176,7 @@
         <v>859</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -6211,7 +6223,7 @@
         <v>856</v>
       </c>
       <c r="O53" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="P53" t="s">
         <v>866</v>
@@ -6261,7 +6273,7 @@
         <v>859</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6308,7 +6320,7 @@
         <v>859</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -6355,13 +6367,13 @@
         <v>856</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="P56" t="s">
         <v>866</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6408,7 +6420,7 @@
         <v>859</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -6455,7 +6467,7 @@
         <v>856</v>
       </c>
       <c r="O58" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="P58" t="s">
         <v>866</v>
@@ -6506,13 +6518,13 @@
         <v>856</v>
       </c>
       <c r="O59" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="P59" t="s">
         <v>866</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6559,7 +6571,7 @@
         <v>859</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -6606,13 +6618,13 @@
         <v>856</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="P61" s="3" t="s">
         <v>866</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6659,7 +6671,7 @@
         <v>859</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -6706,7 +6718,7 @@
         <v>856</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>866</v>
@@ -6756,13 +6768,13 @@
         <v>856</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>866</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -6809,7 +6821,7 @@
         <v>856</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>866</v>
@@ -6859,7 +6871,7 @@
         <v>856</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>866</v>
@@ -6915,7 +6927,7 @@
         <v>866</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6965,7 +6977,7 @@
         <v>866</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7015,7 +7027,7 @@
         <v>866</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7065,7 +7077,7 @@
         <v>866</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7162,7 +7174,7 @@
         <v>866</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7212,7 +7224,7 @@
         <v>866</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7259,10 +7271,10 @@
         <v>859</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7514,10 +7526,10 @@
         <v>859</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="81" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8311,10 +8323,10 @@
         <v>859</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="100" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8408,10 +8420,10 @@
         <v>859</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="102" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8458,10 +8470,10 @@
         <v>859</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8508,10 +8520,10 @@
         <v>859</v>
       </c>
       <c r="P103" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="Q103" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="Q103" s="1" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="104" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8558,10 +8570,10 @@
         <v>859</v>
       </c>
       <c r="P104" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="Q104" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="Q104" s="1" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="105" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8608,10 +8620,10 @@
         <v>859</v>
       </c>
       <c r="P105" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="Q105" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="Q105" s="1" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="106" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8658,10 +8670,10 @@
         <v>859</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="107" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8708,10 +8720,10 @@
         <v>859</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="108" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8758,10 +8770,10 @@
         <v>859</v>
       </c>
       <c r="P108" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="Q108" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="109" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8808,10 +8820,10 @@
         <v>859</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="110" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8858,10 +8870,10 @@
         <v>859</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="111" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8908,10 +8920,10 @@
         <v>859</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="112" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8958,7 +8970,7 @@
         <v>859</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="Q112" s="1" t="s">
         <v>641</v>
@@ -9008,10 +9020,10 @@
         <v>859</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="114" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9058,10 +9070,10 @@
         <v>859</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="115" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9108,10 +9120,10 @@
         <v>859</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="116" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9158,7 +9170,7 @@
         <v>859</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="117" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9205,10 +9217,10 @@
         <v>859</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="118" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9255,10 +9267,10 @@
         <v>859</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -9305,10 +9317,10 @@
         <v>856</v>
       </c>
       <c r="P119" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>

--- a/data extraction /lit search metadata /wos176_final.xlsx
+++ b/data extraction /lit search metadata /wos176_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26669599-C536-8C46-8936-E12AEF3E768A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D275593-20C0-E940-8327-F12288754F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-19940" windowWidth="23980" windowHeight="10600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28700" yWindow="1880" windowWidth="23980" windowHeight="10600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wos176_final" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="939">
   <si>
     <t>label</t>
   </si>
@@ -2835,6 +2835,9 @@
   </si>
   <si>
     <t xml:space="preserve">pulse/press experiment, can't seem to find sample size but there are error bars indicated standard deviation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no raw values, expected values for model employed </t>
   </si>
 </sst>
 </file>
@@ -3697,7 +3700,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R31" sqref="R31"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4619,60 +4622,57 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>2017</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="J23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L23" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="L23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="R23" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4781,7 +4781,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>200</v>
       </c>
@@ -4834,56 +4834,56 @@
         <v>934</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>2011</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J27" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="J27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="L27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q27" s="1" t="s">
         <v>937</v>
       </c>
     </row>
@@ -4940,54 +4940,57 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>2011</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="J29" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="J29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L29" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="L29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N29" t="s">
-        <v>856</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="N29" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="1" t="s">
         <v>866</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">

--- a/data extraction /lit search metadata /wos176_final.xlsx
+++ b/data extraction /lit search metadata /wos176_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D275593-20C0-E940-8327-F12288754F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6341623C-BD2A-BD44-A4BD-80BB61095344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28700" yWindow="1880" windowWidth="23980" windowHeight="10600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="939">
   <si>
     <t>label</t>
   </si>
@@ -2636,9 +2636,6 @@
     <t>figure 2, 3</t>
   </si>
   <si>
-    <t xml:space="preserve">dig into use of PCA here </t>
-  </si>
-  <si>
     <t>figure 1</t>
   </si>
   <si>
@@ -2838,6 +2835,9 @@
   </si>
   <si>
     <t xml:space="preserve">no raw values, expected values for model employed </t>
+  </si>
+  <si>
+    <t>dig into use of PCA here, couldn't find sample size in this article</t>
   </si>
 </sst>
 </file>
@@ -3700,7 +3700,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD29"/>
+      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3758,7 +3758,7 @@
         <v>10</v>
       </c>
       <c r="R1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -4672,7 +4672,7 @@
         <v>866</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4725,7 +4725,7 @@
         <v>866</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4778,7 +4778,7 @@
         <v>866</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4831,7 +4831,7 @@
         <v>866</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4884,7 +4884,7 @@
         <v>866</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -4990,7 +4990,7 @@
         <v>866</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -5096,7 +5096,10 @@
         <v>866</v>
       </c>
       <c r="Q31" t="s">
-        <v>871</v>
+        <v>938</v>
+      </c>
+      <c r="R31" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -5143,13 +5146,13 @@
         <v>856</v>
       </c>
       <c r="O32" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="P32" t="s">
         <v>866</v>
       </c>
       <c r="Q32" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -5196,13 +5199,13 @@
         <v>856</v>
       </c>
       <c r="O33" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="P33" t="s">
         <v>866</v>
       </c>
       <c r="Q33" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -5255,7 +5258,7 @@
         <v>866</v>
       </c>
       <c r="Q34" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5305,7 +5308,7 @@
         <v>866</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -5358,7 +5361,7 @@
         <v>866</v>
       </c>
       <c r="Q36" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5405,13 +5408,13 @@
         <v>856</v>
       </c>
       <c r="O37" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="Q37" s="2" t="s">
         <v>880</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -5458,13 +5461,13 @@
         <v>856</v>
       </c>
       <c r="O38" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="P38" t="s">
         <v>866</v>
       </c>
       <c r="Q38" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
@@ -5564,7 +5567,7 @@
         <v>866</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -5617,7 +5620,7 @@
         <v>866</v>
       </c>
       <c r="Q41" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
@@ -5664,13 +5667,13 @@
         <v>859</v>
       </c>
       <c r="O42" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="P42" t="s">
         <v>866</v>
       </c>
       <c r="Q42" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="R42" t="s">
         <v>857</v>
@@ -5723,7 +5726,7 @@
         <v>866</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -5770,7 +5773,7 @@
         <v>856</v>
       </c>
       <c r="O44" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="P44" t="s">
         <v>866</v>
@@ -5870,13 +5873,13 @@
         <v>856</v>
       </c>
       <c r="O46" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="P46" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="Q46" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -5923,13 +5926,13 @@
         <v>856</v>
       </c>
       <c r="O47" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="P47" t="s">
         <v>866</v>
       </c>
       <c r="Q47" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5979,7 +5982,7 @@
         <v>866</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -6026,7 +6029,7 @@
         <v>856</v>
       </c>
       <c r="O49" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="P49" t="s">
         <v>866</v>
@@ -6076,7 +6079,7 @@
         <v>856</v>
       </c>
       <c r="O50" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="P50" t="s">
         <v>866</v>
@@ -6126,13 +6129,13 @@
         <v>856</v>
       </c>
       <c r="O51" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="P51" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="Q51" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6179,7 +6182,7 @@
         <v>859</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -6226,7 +6229,7 @@
         <v>856</v>
       </c>
       <c r="O53" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="P53" t="s">
         <v>866</v>
@@ -6276,7 +6279,7 @@
         <v>859</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6323,7 +6326,7 @@
         <v>859</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -6370,13 +6373,13 @@
         <v>856</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="P56" t="s">
         <v>866</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6423,7 +6426,7 @@
         <v>859</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -6470,7 +6473,7 @@
         <v>856</v>
       </c>
       <c r="O58" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="P58" t="s">
         <v>866</v>
@@ -6521,13 +6524,13 @@
         <v>856</v>
       </c>
       <c r="O59" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="P59" t="s">
         <v>866</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6574,7 +6577,7 @@
         <v>859</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -6621,13 +6624,13 @@
         <v>856</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="P61" s="3" t="s">
         <v>866</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6674,7 +6677,7 @@
         <v>859</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -6721,7 +6724,7 @@
         <v>856</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>866</v>
@@ -6771,13 +6774,13 @@
         <v>856</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>866</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -6824,7 +6827,7 @@
         <v>856</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>866</v>
@@ -6930,7 +6933,7 @@
         <v>866</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6980,7 +6983,7 @@
         <v>866</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7030,7 +7033,7 @@
         <v>866</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7080,7 +7083,7 @@
         <v>866</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7177,7 +7180,7 @@
         <v>866</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7227,7 +7230,7 @@
         <v>866</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7274,10 +7277,10 @@
         <v>859</v>
       </c>
       <c r="P74" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="Q74" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7529,10 +7532,10 @@
         <v>859</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="81" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8326,10 +8329,10 @@
         <v>859</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="100" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8423,10 +8426,10 @@
         <v>859</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="102" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8473,10 +8476,10 @@
         <v>859</v>
       </c>
       <c r="P102" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q102" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8523,10 +8526,10 @@
         <v>859</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="104" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8573,10 +8576,10 @@
         <v>859</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="105" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8623,10 +8626,10 @@
         <v>859</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="106" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8673,10 +8676,10 @@
         <v>859</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="107" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8723,10 +8726,10 @@
         <v>859</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="108" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8773,10 +8776,10 @@
         <v>859</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="109" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8823,10 +8826,10 @@
         <v>859</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="110" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8873,10 +8876,10 @@
         <v>859</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="111" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8923,10 +8926,10 @@
         <v>859</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="112" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8973,7 +8976,7 @@
         <v>859</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="Q112" s="1" t="s">
         <v>641</v>
@@ -9023,10 +9026,10 @@
         <v>859</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="114" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9073,10 +9076,10 @@
         <v>859</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="115" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9123,10 +9126,10 @@
         <v>859</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="116" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9173,7 +9176,7 @@
         <v>859</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="117" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9220,10 +9223,10 @@
         <v>859</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="118" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9270,10 +9273,10 @@
         <v>859</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -9320,10 +9323,10 @@
         <v>856</v>
       </c>
       <c r="P119" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
   </sheetData>

--- a/data extraction /lit search metadata /wos176_final.xlsx
+++ b/data extraction /lit search metadata /wos176_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6341623C-BD2A-BD44-A4BD-80BB61095344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBA9860-7618-4F4F-905A-8445465A1FA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28700" yWindow="1880" windowWidth="23980" windowHeight="10600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2642,9 +2642,6 @@
     <t>figure 1,2,3</t>
   </si>
   <si>
-    <t xml:space="preserve">not sure about the different life stages manipulated </t>
-  </si>
-  <si>
     <t>heatshock, not sure if it would be good extract this response value</t>
   </si>
   <si>
@@ -2838,6 +2835,9 @@
   </si>
   <si>
     <t>dig into use of PCA here, couldn't find sample size in this article</t>
+  </si>
+  <si>
+    <t>pulse press, acclimation experiment</t>
   </si>
 </sst>
 </file>
@@ -3699,8 +3699,8 @@
   <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3758,7 +3758,7 @@
         <v>10</v>
       </c>
       <c r="R1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -4672,7 +4672,7 @@
         <v>866</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4725,7 +4725,7 @@
         <v>866</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4778,7 +4778,7 @@
         <v>866</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4831,7 +4831,7 @@
         <v>866</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4884,7 +4884,7 @@
         <v>866</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -4990,7 +4990,7 @@
         <v>866</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -5096,63 +5096,63 @@
         <v>866</v>
       </c>
       <c r="Q31" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="R31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>2016</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="J32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L32" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="L32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N32" t="s">
-        <v>856</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="N32" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="Q32" t="s">
-        <v>873</v>
+      <c r="Q32" s="1" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -5199,13 +5199,13 @@
         <v>856</v>
       </c>
       <c r="O33" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="P33" t="s">
         <v>866</v>
       </c>
       <c r="Q33" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -5258,7 +5258,7 @@
         <v>866</v>
       </c>
       <c r="Q34" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5308,7 +5308,7 @@
         <v>866</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -5361,7 +5361,7 @@
         <v>866</v>
       </c>
       <c r="Q36" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5408,13 +5408,13 @@
         <v>856</v>
       </c>
       <c r="O37" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="Q37" s="2" t="s">
         <v>879</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -5461,13 +5461,13 @@
         <v>856</v>
       </c>
       <c r="O38" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="P38" t="s">
         <v>866</v>
       </c>
       <c r="Q38" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
@@ -5567,7 +5567,7 @@
         <v>866</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -5620,62 +5620,62 @@
         <v>866</v>
       </c>
       <c r="Q41" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2006</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="O42" s="1" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>307</v>
-      </c>
-      <c r="B42" t="s">
-        <v>308</v>
-      </c>
-      <c r="C42" t="s">
-        <v>309</v>
-      </c>
-      <c r="D42" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" t="s">
-        <v>310</v>
-      </c>
-      <c r="F42">
-        <v>2006</v>
-      </c>
-      <c r="G42" t="s">
-        <v>311</v>
-      </c>
-      <c r="H42" t="s">
-        <v>106</v>
-      </c>
-      <c r="I42" t="s">
-        <v>312</v>
-      </c>
-      <c r="J42" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" t="s">
-        <v>313</v>
-      </c>
-      <c r="L42" t="s">
-        <v>21</v>
-      </c>
-      <c r="M42" t="s">
-        <v>23</v>
-      </c>
-      <c r="N42" t="s">
-        <v>859</v>
-      </c>
-      <c r="O42" t="s">
-        <v>886</v>
-      </c>
-      <c r="P42" t="s">
+      <c r="P42" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="Q42" t="s">
-        <v>935</v>
-      </c>
-      <c r="R42" t="s">
+      <c r="Q42" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="R42" s="1" t="s">
         <v>857</v>
       </c>
     </row>
@@ -5726,7 +5726,7 @@
         <v>866</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -5773,7 +5773,7 @@
         <v>856</v>
       </c>
       <c r="O44" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="P44" t="s">
         <v>866</v>
@@ -5876,10 +5876,10 @@
         <v>871</v>
       </c>
       <c r="P46" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="Q46" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -5932,7 +5932,7 @@
         <v>866</v>
       </c>
       <c r="Q47" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5982,7 +5982,7 @@
         <v>866</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -6029,7 +6029,7 @@
         <v>856</v>
       </c>
       <c r="O49" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="P49" t="s">
         <v>866</v>
@@ -6079,7 +6079,7 @@
         <v>856</v>
       </c>
       <c r="O50" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="P50" t="s">
         <v>866</v>
@@ -6129,13 +6129,13 @@
         <v>856</v>
       </c>
       <c r="O51" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="P51" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="Q51" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6182,7 +6182,7 @@
         <v>859</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -6229,7 +6229,7 @@
         <v>856</v>
       </c>
       <c r="O53" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="P53" t="s">
         <v>866</v>
@@ -6279,7 +6279,7 @@
         <v>859</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6326,7 +6326,7 @@
         <v>859</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -6379,7 +6379,7 @@
         <v>866</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6426,7 +6426,7 @@
         <v>859</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -6530,7 +6530,7 @@
         <v>866</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6577,7 +6577,7 @@
         <v>859</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -6630,7 +6630,7 @@
         <v>866</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6677,7 +6677,7 @@
         <v>859</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -6724,7 +6724,7 @@
         <v>856</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>866</v>
@@ -6780,7 +6780,7 @@
         <v>866</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -6933,7 +6933,7 @@
         <v>866</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6983,7 +6983,7 @@
         <v>866</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7033,7 +7033,7 @@
         <v>866</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7083,7 +7083,7 @@
         <v>866</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7180,7 +7180,7 @@
         <v>866</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7230,7 +7230,7 @@
         <v>866</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7277,10 +7277,10 @@
         <v>859</v>
       </c>
       <c r="P74" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q74" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7532,10 +7532,10 @@
         <v>859</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="81" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8329,10 +8329,10 @@
         <v>859</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="100" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8426,10 +8426,10 @@
         <v>859</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="102" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8476,10 +8476,10 @@
         <v>859</v>
       </c>
       <c r="P102" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="Q102" s="1" t="s">
         <v>914</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8526,10 +8526,10 @@
         <v>859</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="104" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8576,10 +8576,10 @@
         <v>859</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="105" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8626,10 +8626,10 @@
         <v>859</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="106" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8676,10 +8676,10 @@
         <v>859</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="107" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8726,10 +8726,10 @@
         <v>859</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="108" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8776,10 +8776,10 @@
         <v>859</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="109" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8826,10 +8826,10 @@
         <v>859</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="110" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8876,10 +8876,10 @@
         <v>859</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="111" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8926,10 +8926,10 @@
         <v>859</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="112" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8976,7 +8976,7 @@
         <v>859</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="Q112" s="1" t="s">
         <v>641</v>
@@ -9026,10 +9026,10 @@
         <v>859</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="114" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9076,10 +9076,10 @@
         <v>859</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="115" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9126,10 +9126,10 @@
         <v>859</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="116" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9176,7 +9176,7 @@
         <v>859</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="117" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9223,10 +9223,10 @@
         <v>859</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="118" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9273,10 +9273,10 @@
         <v>859</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -9323,10 +9323,10 @@
         <v>856</v>
       </c>
       <c r="P119" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
   </sheetData>

--- a/data extraction /lit search metadata /wos176_final.xlsx
+++ b/data extraction /lit search metadata /wos176_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBA9860-7618-4F4F-905A-8445465A1FA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5BD3DE-EC22-C548-80E9-9CAB4FCBD4D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28700" yWindow="1880" windowWidth="23980" windowHeight="10600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="939">
   <si>
     <t>label</t>
   </si>
@@ -2648,9 +2648,6 @@
     <t>table 1, figure 2, 3, 5</t>
   </si>
   <si>
-    <t xml:space="preserve">looks like the responses were generated in different temperature treatments from their constant/flux rearing conditions </t>
-  </si>
-  <si>
     <t xml:space="preserve">doesn't appear to be extractable with parameter that would be easily quanitifiable </t>
   </si>
   <si>
@@ -2838,6 +2835,9 @@
   </si>
   <si>
     <t>pulse press, acclimation experiment</t>
+  </si>
+  <si>
+    <t>looks like the responses were generated in different temperature treatments from their constant/flux rearing conditions (return for acclimation/pulse press experiments; not sure about sample sizes for table 1 (check out results referencing the results of table 1)</t>
   </si>
 </sst>
 </file>
@@ -3700,7 +3700,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3758,7 +3758,7 @@
         <v>10</v>
       </c>
       <c r="R1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -4672,7 +4672,7 @@
         <v>866</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4725,7 +4725,7 @@
         <v>866</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4778,7 +4778,7 @@
         <v>866</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4831,7 +4831,7 @@
         <v>866</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4884,7 +4884,7 @@
         <v>866</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -4990,7 +4990,7 @@
         <v>866</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -5096,7 +5096,7 @@
         <v>866</v>
       </c>
       <c r="Q31" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="R31" t="s">
         <v>23</v>
@@ -5152,7 +5152,7 @@
         <v>866</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -5205,7 +5205,10 @@
         <v>866</v>
       </c>
       <c r="Q33" t="s">
-        <v>875</v>
+        <v>938</v>
+      </c>
+      <c r="R33" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -5308,7 +5311,7 @@
         <v>866</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -5361,7 +5364,7 @@
         <v>866</v>
       </c>
       <c r="Q36" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5408,13 +5411,13 @@
         <v>856</v>
       </c>
       <c r="O37" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="Q37" s="2" t="s">
         <v>878</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -5461,13 +5464,13 @@
         <v>856</v>
       </c>
       <c r="O38" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="P38" t="s">
         <v>866</v>
       </c>
       <c r="Q38" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
@@ -5567,7 +5570,7 @@
         <v>866</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -5620,7 +5623,7 @@
         <v>866</v>
       </c>
       <c r="Q41" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="42" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5667,13 +5670,13 @@
         <v>859</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>866</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>857</v>
@@ -5726,7 +5729,7 @@
         <v>866</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -5773,7 +5776,7 @@
         <v>856</v>
       </c>
       <c r="O44" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="P44" t="s">
         <v>866</v>
@@ -5876,10 +5879,10 @@
         <v>871</v>
       </c>
       <c r="P46" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="Q46" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -5932,7 +5935,7 @@
         <v>866</v>
       </c>
       <c r="Q47" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5982,7 +5985,7 @@
         <v>866</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -6029,7 +6032,7 @@
         <v>856</v>
       </c>
       <c r="O49" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="P49" t="s">
         <v>866</v>
@@ -6079,7 +6082,7 @@
         <v>856</v>
       </c>
       <c r="O50" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="P50" t="s">
         <v>866</v>
@@ -6129,13 +6132,13 @@
         <v>856</v>
       </c>
       <c r="O51" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="P51" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="Q51" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6182,7 +6185,7 @@
         <v>859</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -6229,7 +6232,7 @@
         <v>856</v>
       </c>
       <c r="O53" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="P53" t="s">
         <v>866</v>
@@ -6279,7 +6282,7 @@
         <v>859</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6326,7 +6329,7 @@
         <v>859</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -6379,7 +6382,7 @@
         <v>866</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6426,7 +6429,7 @@
         <v>859</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -6530,7 +6533,7 @@
         <v>866</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6577,7 +6580,7 @@
         <v>859</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -6630,7 +6633,7 @@
         <v>866</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6677,7 +6680,7 @@
         <v>859</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -6724,7 +6727,7 @@
         <v>856</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>866</v>
@@ -6780,7 +6783,7 @@
         <v>866</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -6933,7 +6936,7 @@
         <v>866</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6983,7 +6986,7 @@
         <v>866</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7033,7 +7036,7 @@
         <v>866</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7083,7 +7086,7 @@
         <v>866</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7180,7 +7183,7 @@
         <v>866</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7230,7 +7233,7 @@
         <v>866</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7277,10 +7280,10 @@
         <v>859</v>
       </c>
       <c r="P74" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="Q74" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7532,10 +7535,10 @@
         <v>859</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="81" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8329,10 +8332,10 @@
         <v>859</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="100" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8426,10 +8429,10 @@
         <v>859</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="102" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8476,10 +8479,10 @@
         <v>859</v>
       </c>
       <c r="P102" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="Q102" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8526,10 +8529,10 @@
         <v>859</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="104" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8576,10 +8579,10 @@
         <v>859</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="105" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8626,10 +8629,10 @@
         <v>859</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="106" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8676,10 +8679,10 @@
         <v>859</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="107" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8726,10 +8729,10 @@
         <v>859</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="108" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8776,10 +8779,10 @@
         <v>859</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="109" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8826,10 +8829,10 @@
         <v>859</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="110" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8876,10 +8879,10 @@
         <v>859</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="111" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8926,10 +8929,10 @@
         <v>859</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="112" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8976,7 +8979,7 @@
         <v>859</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="Q112" s="1" t="s">
         <v>641</v>
@@ -9026,10 +9029,10 @@
         <v>859</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="114" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9076,10 +9079,10 @@
         <v>859</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="115" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9126,10 +9129,10 @@
         <v>859</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="116" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9176,7 +9179,7 @@
         <v>859</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="117" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9223,10 +9226,10 @@
         <v>859</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="118" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9273,10 +9276,10 @@
         <v>859</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -9323,10 +9326,10 @@
         <v>856</v>
       </c>
       <c r="P119" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>

--- a/data extraction /lit search metadata /wos176_final.xlsx
+++ b/data extraction /lit search metadata /wos176_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5BD3DE-EC22-C548-80E9-9CAB4FCBD4D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3002A2E-1C88-4E42-87D1-87183B719B71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28700" yWindow="1880" windowWidth="23980" windowHeight="10600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="939">
   <si>
     <t>label</t>
   </si>
@@ -2642,9 +2642,6 @@
     <t>figure 1,2,3</t>
   </si>
   <si>
-    <t>heatshock, not sure if it would be good extract this response value</t>
-  </si>
-  <si>
     <t>table 1, figure 2, 3, 5</t>
   </si>
   <si>
@@ -2837,7 +2834,10 @@
     <t>pulse press, acclimation experiment</t>
   </si>
   <si>
-    <t>looks like the responses were generated in different temperature treatments from their constant/flux rearing conditions (return for acclimation/pulse press experiments; not sure about sample sizes for table 1 (check out results referencing the results of table 1)</t>
+    <t>heatshock, return for pulse press experiments work; missing sample size for current extraction</t>
+  </si>
+  <si>
+    <t>might need to return to get actual irradiances for UV treatments (they manipulated both temperature and irradiance in these experiments)</t>
   </si>
 </sst>
 </file>
@@ -3699,8 +3699,8 @@
   <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q34" sqref="Q34"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3758,7 +3758,7 @@
         <v>10</v>
       </c>
       <c r="R1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -4672,7 +4672,7 @@
         <v>866</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4725,7 +4725,7 @@
         <v>866</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4778,7 +4778,7 @@
         <v>866</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4831,7 +4831,7 @@
         <v>866</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4884,7 +4884,7 @@
         <v>866</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -4990,7 +4990,7 @@
         <v>866</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -5096,7 +5096,7 @@
         <v>866</v>
       </c>
       <c r="Q31" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="R31" t="s">
         <v>23</v>
@@ -5152,7 +5152,7 @@
         <v>866</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -5199,13 +5199,13 @@
         <v>856</v>
       </c>
       <c r="O33" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="P33" t="s">
         <v>866</v>
       </c>
       <c r="Q33" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="R33" t="s">
         <v>23</v>
@@ -5261,7 +5261,10 @@
         <v>866</v>
       </c>
       <c r="Q34" t="s">
-        <v>873</v>
+        <v>938</v>
+      </c>
+      <c r="R34" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5311,7 +5314,7 @@
         <v>866</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -5364,7 +5367,7 @@
         <v>866</v>
       </c>
       <c r="Q36" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5411,13 +5414,13 @@
         <v>856</v>
       </c>
       <c r="O37" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q37" s="2" t="s">
         <v>877</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -5464,13 +5467,13 @@
         <v>856</v>
       </c>
       <c r="O38" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="P38" t="s">
         <v>866</v>
       </c>
       <c r="Q38" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
@@ -5570,7 +5573,7 @@
         <v>866</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -5623,7 +5626,7 @@
         <v>866</v>
       </c>
       <c r="Q41" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="42" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5670,13 +5673,13 @@
         <v>859</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>866</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>857</v>
@@ -5729,7 +5732,7 @@
         <v>866</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -5776,7 +5779,7 @@
         <v>856</v>
       </c>
       <c r="O44" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="P44" t="s">
         <v>866</v>
@@ -5879,10 +5882,10 @@
         <v>871</v>
       </c>
       <c r="P46" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="Q46" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -5935,7 +5938,7 @@
         <v>866</v>
       </c>
       <c r="Q47" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5985,7 +5988,7 @@
         <v>866</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -6032,7 +6035,7 @@
         <v>856</v>
       </c>
       <c r="O49" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="P49" t="s">
         <v>866</v>
@@ -6082,7 +6085,7 @@
         <v>856</v>
       </c>
       <c r="O50" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="P50" t="s">
         <v>866</v>
@@ -6132,13 +6135,13 @@
         <v>856</v>
       </c>
       <c r="O51" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="P51" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="Q51" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6185,7 +6188,7 @@
         <v>859</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -6232,7 +6235,7 @@
         <v>856</v>
       </c>
       <c r="O53" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="P53" t="s">
         <v>866</v>
@@ -6282,7 +6285,7 @@
         <v>859</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6329,7 +6332,7 @@
         <v>859</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -6382,7 +6385,7 @@
         <v>866</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6429,7 +6432,7 @@
         <v>859</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -6533,7 +6536,7 @@
         <v>866</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6580,7 +6583,7 @@
         <v>859</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -6633,7 +6636,7 @@
         <v>866</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6680,7 +6683,7 @@
         <v>859</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -6727,7 +6730,7 @@
         <v>856</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>866</v>
@@ -6783,7 +6786,7 @@
         <v>866</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -6936,7 +6939,7 @@
         <v>866</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6986,7 +6989,7 @@
         <v>866</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7036,7 +7039,7 @@
         <v>866</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7086,7 +7089,7 @@
         <v>866</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7183,7 +7186,7 @@
         <v>866</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7233,7 +7236,7 @@
         <v>866</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7280,10 +7283,10 @@
         <v>859</v>
       </c>
       <c r="P74" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q74" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7535,10 +7538,10 @@
         <v>859</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="81" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8332,10 +8335,10 @@
         <v>859</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="100" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8429,10 +8432,10 @@
         <v>859</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="102" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8479,10 +8482,10 @@
         <v>859</v>
       </c>
       <c r="P102" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="Q102" s="1" t="s">
         <v>912</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8529,10 +8532,10 @@
         <v>859</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="104" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8579,10 +8582,10 @@
         <v>859</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="105" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8629,10 +8632,10 @@
         <v>859</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="106" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8679,10 +8682,10 @@
         <v>859</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="107" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8729,10 +8732,10 @@
         <v>859</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="108" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8779,10 +8782,10 @@
         <v>859</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="109" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8829,10 +8832,10 @@
         <v>859</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="110" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8879,10 +8882,10 @@
         <v>859</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="111" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8929,10 +8932,10 @@
         <v>859</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="112" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8979,7 +8982,7 @@
         <v>859</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="Q112" s="1" t="s">
         <v>641</v>
@@ -9029,10 +9032,10 @@
         <v>859</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="114" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9079,10 +9082,10 @@
         <v>859</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="115" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9129,10 +9132,10 @@
         <v>859</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="116" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9179,7 +9182,7 @@
         <v>859</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="117" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9226,10 +9229,10 @@
         <v>859</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="118" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9276,10 +9279,10 @@
         <v>859</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -9326,10 +9329,10 @@
         <v>856</v>
       </c>
       <c r="P119" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
   </sheetData>

--- a/data extraction /lit search metadata /wos176_final.xlsx
+++ b/data extraction /lit search metadata /wos176_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3002A2E-1C88-4E42-87D1-87183B719B71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DCED27-E923-8D49-8C8C-ED51402CEA8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28700" yWindow="1880" windowWidth="23980" windowHeight="10600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="939">
   <si>
     <t>label</t>
   </si>
@@ -2648,9 +2648,6 @@
     <t xml:space="preserve">doesn't appear to be extractable with parameter that would be easily quanitifiable </t>
   </si>
   <si>
-    <t xml:space="preserve">predictable and unpredictable variability </t>
-  </si>
-  <si>
     <t xml:space="preserve">figure 2 </t>
   </si>
   <si>
@@ -2838,6 +2835,9 @@
   </si>
   <si>
     <t>might need to return to get actual irradiances for UV treatments (they manipulated both temperature and irradiance in these experiments)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predictable and unpredictable variability; extracted all of figure 2 except for 2b and 2d--return to this for pulse press or acclimation assay experiments for cold exposure recovery etc </t>
   </si>
 </sst>
 </file>
@@ -3699,8 +3699,8 @@
   <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S39" sqref="S39"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3758,7 +3758,7 @@
         <v>10</v>
       </c>
       <c r="R1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -4672,7 +4672,7 @@
         <v>866</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4725,7 +4725,7 @@
         <v>866</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4778,7 +4778,7 @@
         <v>866</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4831,7 +4831,7 @@
         <v>866</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4884,7 +4884,7 @@
         <v>866</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -4990,7 +4990,7 @@
         <v>866</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -5096,7 +5096,7 @@
         <v>866</v>
       </c>
       <c r="Q31" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="R31" t="s">
         <v>23</v>
@@ -5152,7 +5152,7 @@
         <v>866</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -5205,7 +5205,7 @@
         <v>866</v>
       </c>
       <c r="Q33" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="R33" t="s">
         <v>23</v>
@@ -5261,7 +5261,7 @@
         <v>866</v>
       </c>
       <c r="Q34" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="R34" t="s">
         <v>23</v>
@@ -5367,7 +5367,10 @@
         <v>866</v>
       </c>
       <c r="Q36" t="s">
-        <v>875</v>
+        <v>938</v>
+      </c>
+      <c r="R36" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5414,13 +5417,13 @@
         <v>856</v>
       </c>
       <c r="O37" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="Q37" s="2" t="s">
         <v>876</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -5467,13 +5470,13 @@
         <v>856</v>
       </c>
       <c r="O38" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="P38" t="s">
         <v>866</v>
       </c>
       <c r="Q38" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
@@ -5573,7 +5576,7 @@
         <v>866</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -5626,7 +5629,7 @@
         <v>866</v>
       </c>
       <c r="Q41" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="42" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5673,13 +5676,13 @@
         <v>859</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>866</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>857</v>
@@ -5732,7 +5735,7 @@
         <v>866</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -5779,7 +5782,7 @@
         <v>856</v>
       </c>
       <c r="O44" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="P44" t="s">
         <v>866</v>
@@ -5882,10 +5885,10 @@
         <v>871</v>
       </c>
       <c r="P46" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="Q46" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -5938,7 +5941,7 @@
         <v>866</v>
       </c>
       <c r="Q47" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5988,7 +5991,7 @@
         <v>866</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -6035,7 +6038,7 @@
         <v>856</v>
       </c>
       <c r="O49" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="P49" t="s">
         <v>866</v>
@@ -6085,7 +6088,7 @@
         <v>856</v>
       </c>
       <c r="O50" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="P50" t="s">
         <v>866</v>
@@ -6135,13 +6138,13 @@
         <v>856</v>
       </c>
       <c r="O51" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="P51" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="Q51" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6188,7 +6191,7 @@
         <v>859</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -6235,7 +6238,7 @@
         <v>856</v>
       </c>
       <c r="O53" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="P53" t="s">
         <v>866</v>
@@ -6285,7 +6288,7 @@
         <v>859</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6332,7 +6335,7 @@
         <v>859</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -6385,7 +6388,7 @@
         <v>866</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6432,7 +6435,7 @@
         <v>859</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -6536,7 +6539,7 @@
         <v>866</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6583,7 +6586,7 @@
         <v>859</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -6636,7 +6639,7 @@
         <v>866</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6683,7 +6686,7 @@
         <v>859</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -6730,7 +6733,7 @@
         <v>856</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>866</v>
@@ -6786,7 +6789,7 @@
         <v>866</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -6939,7 +6942,7 @@
         <v>866</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6989,7 +6992,7 @@
         <v>866</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7039,7 +7042,7 @@
         <v>866</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7089,7 +7092,7 @@
         <v>866</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7186,7 +7189,7 @@
         <v>866</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7236,7 +7239,7 @@
         <v>866</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7283,10 +7286,10 @@
         <v>859</v>
       </c>
       <c r="P74" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="Q74" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -7538,10 +7541,10 @@
         <v>859</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="81" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8335,10 +8338,10 @@
         <v>859</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="100" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8432,10 +8435,10 @@
         <v>859</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="102" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8482,10 +8485,10 @@
         <v>859</v>
       </c>
       <c r="P102" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q102" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8532,10 +8535,10 @@
         <v>859</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="104" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8582,10 +8585,10 @@
         <v>859</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="105" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8632,10 +8635,10 @@
         <v>859</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="106" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8682,10 +8685,10 @@
         <v>859</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="107" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8732,10 +8735,10 @@
         <v>859</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="108" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8782,10 +8785,10 @@
         <v>859</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="109" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8832,10 +8835,10 @@
         <v>859</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="110" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8882,10 +8885,10 @@
         <v>859</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="111" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8932,10 +8935,10 @@
         <v>859</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="112" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8982,7 +8985,7 @@
         <v>859</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="Q112" s="1" t="s">
         <v>641</v>
@@ -9032,10 +9035,10 @@
         <v>859</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="114" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9082,10 +9085,10 @@
         <v>859</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="115" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9132,10 +9135,10 @@
         <v>859</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="116" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9182,7 +9185,7 @@
         <v>859</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="117" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9229,10 +9232,10 @@
         <v>859</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="118" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9279,10 +9282,10 @@
         <v>859</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -9329,10 +9332,10 @@
         <v>856</v>
       </c>
       <c r="P119" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Q119" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
   </sheetData>

--- a/data extraction /lit search metadata /wos176_final.xlsx
+++ b/data extraction /lit search metadata /wos176_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DCED27-E923-8D49-8C8C-ED51402CEA8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCB5D4E-01C2-1C45-BCCF-13C55955CBD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28700" yWindow="1880" windowWidth="23980" windowHeight="10600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="7400" windowWidth="23980" windowHeight="10600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wos176_final" sheetId="1" r:id="rId1"/>
@@ -2651,15 +2651,9 @@
     <t xml:space="preserve">figure 2 </t>
   </si>
   <si>
-    <t xml:space="preserve">other graphs may provided good info for intro and thinking about the color of environmental noise </t>
-  </si>
-  <si>
     <t>population</t>
   </si>
   <si>
-    <t>data available in figshare</t>
-  </si>
-  <si>
     <t>figure 2, 4</t>
   </si>
   <si>
@@ -2838,6 +2832,12 @@
   </si>
   <si>
     <t xml:space="preserve">predictable and unpredictable variability; extracted all of figure 2 except for 2b and 2d--return to this for pulse press or acclimation assay experiments for cold exposure recovery etc </t>
+  </si>
+  <si>
+    <t>other graphs may provided good info for intro and thinking about the color of environmental noise ; excluded because main figure for data did not have error reported and none of the other figures appear to be metrics that we could include for analysis with other studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data available in figshare--not usable without errors; extracted data from figure but can't locate sample size </t>
   </si>
 </sst>
 </file>
@@ -2980,7 +2980,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3166,12 +3166,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3333,10 +3327,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3699,7 +3692,7 @@
   <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
@@ -3758,7 +3751,7 @@
         <v>10</v>
       </c>
       <c r="R1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -4672,7 +4665,7 @@
         <v>866</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4725,7 +4718,7 @@
         <v>866</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4778,7 +4771,7 @@
         <v>866</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4831,7 +4824,7 @@
         <v>866</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4884,7 +4877,7 @@
         <v>866</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -4990,7 +4983,7 @@
         <v>866</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -5096,7 +5089,7 @@
         <v>866</v>
       </c>
       <c r="Q31" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="R31" t="s">
         <v>23</v>
@@ -5152,7 +5145,7 @@
         <v>866</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -5205,7 +5198,7 @@
         <v>866</v>
       </c>
       <c r="Q33" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="R33" t="s">
         <v>23</v>
@@ -5261,7 +5254,7 @@
         <v>866</v>
       </c>
       <c r="Q34" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="R34" t="s">
         <v>23</v>
@@ -5367,63 +5360,63 @@
         <v>866</v>
       </c>
       <c r="Q36" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="R36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>2000</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M37" s="2" t="s">
+      <c r="L37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N37" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="O37" s="2" t="s">
+      <c r="N37" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="O37" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="P37" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="Q37" s="2" t="s">
+      <c r="P37" s="1" t="s">
         <v>876</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -5470,13 +5463,13 @@
         <v>856</v>
       </c>
       <c r="O38" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="P38" t="s">
         <v>866</v>
       </c>
       <c r="Q38" t="s">
-        <v>878</v>
+        <v>938</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
@@ -5576,7 +5569,7 @@
         <v>866</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -5629,7 +5622,7 @@
         <v>866</v>
       </c>
       <c r="Q41" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="42" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5676,13 +5669,13 @@
         <v>859</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>866</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>857</v>
@@ -5735,7 +5728,7 @@
         <v>866</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -5782,7 +5775,7 @@
         <v>856</v>
       </c>
       <c r="O44" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="P44" t="s">
         <v>866</v>
@@ -5885,10 +5878,10 @@
         <v>871</v>
       </c>
       <c r="P46" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="Q46" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -5941,7 +5934,7 @@
         <v>866</v>
       </c>
       <c r="Q47" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5991,7 +5984,7 @@
         <v>866</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -6038,7 +6031,7 @@
         <v>856</v>
       </c>
       <c r="O49" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="P49" t="s">
         <v>866</v>
@@ -6088,7 +6081,7 @@
         <v>856</v>
       </c>
       <c r="O50" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="P50" t="s">
         <v>866</v>
@@ -6138,13 +6131,13 @@
         <v>856</v>
       </c>
       <c r="O51" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="P51" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="Q51" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6191,7 +6184,7 @@
         <v>859</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -6238,7 +6231,7 @@
         <v>856</v>
       </c>
       <c r="O53" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="P53" t="s">
         <v>866</v>
@@ -6288,7 +6281,7 @@
         <v>859</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6335,7 +6328,7 @@
         <v>859</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -6378,17 +6371,17 @@
       <c r="M56" t="s">
         <v>856</v>
       </c>
-      <c r="N56" s="3" t="s">
+      <c r="N56" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="O56" s="3" t="s">
+      <c r="O56" s="2" t="s">
         <v>871</v>
       </c>
       <c r="P56" t="s">
         <v>866</v>
       </c>
-      <c r="Q56" s="3" t="s">
-        <v>893</v>
+      <c r="Q56" s="2" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6435,7 +6428,7 @@
         <v>859</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -6478,7 +6471,7 @@
       <c r="M58" t="s">
         <v>856</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="2" t="s">
         <v>856</v>
       </c>
       <c r="O58" t="s">
@@ -6487,7 +6480,7 @@
       <c r="P58" t="s">
         <v>866</v>
       </c>
-      <c r="Q58" s="3"/>
+      <c r="Q58" s="2"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -6529,7 +6522,7 @@
       <c r="M59" t="s">
         <v>856</v>
       </c>
-      <c r="N59" s="3" t="s">
+      <c r="N59" s="2" t="s">
         <v>856</v>
       </c>
       <c r="O59" t="s">
@@ -6538,8 +6531,8 @@
       <c r="P59" t="s">
         <v>866</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>895</v>
+      <c r="Q59" s="2" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6586,7 +6579,7 @@
         <v>859</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -6629,17 +6622,17 @@
       <c r="M61" t="s">
         <v>856</v>
       </c>
-      <c r="N61" s="3" t="s">
+      <c r="N61" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="O61" s="3" t="s">
+      <c r="O61" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="P61" s="3" t="s">
+      <c r="P61" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="Q61" s="3" t="s">
-        <v>897</v>
+      <c r="Q61" s="2" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6686,7 +6679,7 @@
         <v>859</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -6729,13 +6722,13 @@
       <c r="M63" t="s">
         <v>23</v>
       </c>
-      <c r="N63" s="3" t="s">
+      <c r="N63" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="O63" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="P63" s="3" t="s">
+      <c r="O63" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="P63" s="2" t="s">
         <v>866</v>
       </c>
     </row>
@@ -6779,17 +6772,17 @@
       <c r="M64" t="s">
         <v>23</v>
       </c>
-      <c r="N64" s="3" t="s">
+      <c r="N64" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="O64" s="3" t="s">
+      <c r="O64" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="P64" s="3" t="s">
+      <c r="P64" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="Q64" s="3" t="s">
-        <v>900</v>
+      <c r="Q64" s="2" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -6832,13 +6825,13 @@
       <c r="M65" t="s">
         <v>23</v>
       </c>
-      <c r="N65" s="3" t="s">
+      <c r="N65" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="O65" s="3" t="s">
+      <c r="O65" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="P65" s="3" t="s">
+      <c r="P65" s="2" t="s">
         <v>866</v>
       </c>
     </row>
@@ -6882,13 +6875,13 @@
       <c r="M66" t="s">
         <v>23</v>
       </c>
-      <c r="N66" s="3" t="s">
+      <c r="N66" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="O66" s="3" t="s">
+      <c r="O66" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="P66" s="3" t="s">
+      <c r="P66" s="2" t="s">
         <v>866</v>
       </c>
     </row>
@@ -6932,17 +6925,17 @@
       <c r="M67" t="s">
         <v>23</v>
       </c>
-      <c r="N67" s="3" t="s">
+      <c r="N67" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="O67" s="3" t="s">
+      <c r="O67" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="P67" s="3" t="s">
+      <c r="P67" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="Q67" s="3" t="s">
-        <v>901</v>
+      <c r="Q67" s="2" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6992,7 +6985,7 @@
         <v>866</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7042,7 +7035,7 @@
         <v>866</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7092,7 +7085,7 @@
         <v>866</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7189,10 +7182,10 @@
         <v>866</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>514</v>
       </c>
@@ -7223,7 +7216,7 @@
       <c r="J73" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K73" s="4" t="s">
+      <c r="K73" s="3" t="s">
         <v>520</v>
       </c>
       <c r="L73" s="1" t="s">
@@ -7239,7 +7232,7 @@
         <v>866</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7286,50 +7279,50 @@
         <v>859</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="2">
         <v>2018</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H75" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="I75" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="J75" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K75" s="3" t="s">
+      <c r="J75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="L75" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M75" s="3" t="s">
+      <c r="L75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7541,10 +7534,10 @@
         <v>859</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="81" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8338,10 +8331,10 @@
         <v>859</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="100" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8435,10 +8428,10 @@
         <v>859</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="102" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8485,10 +8478,10 @@
         <v>859</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8535,10 +8528,10 @@
         <v>859</v>
       </c>
       <c r="P103" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q103" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="Q103" s="1" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="104" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8585,10 +8578,10 @@
         <v>859</v>
       </c>
       <c r="P104" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q104" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="Q104" s="1" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="105" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8635,10 +8628,10 @@
         <v>859</v>
       </c>
       <c r="P105" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q105" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="Q105" s="1" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="106" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8685,10 +8678,10 @@
         <v>859</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="107" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8735,10 +8728,10 @@
         <v>859</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="108" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8785,10 +8778,10 @@
         <v>859</v>
       </c>
       <c r="P108" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q108" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="109" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8835,10 +8828,10 @@
         <v>859</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="110" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8885,10 +8878,10 @@
         <v>859</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="111" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8935,10 +8928,10 @@
         <v>859</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="112" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8985,7 +8978,7 @@
         <v>859</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="Q112" s="1" t="s">
         <v>641</v>
@@ -9035,10 +9028,10 @@
         <v>859</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="114" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9085,10 +9078,10 @@
         <v>859</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="115" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9135,10 +9128,10 @@
         <v>859</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="116" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9185,7 +9178,7 @@
         <v>859</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="117" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9232,10 +9225,10 @@
         <v>859</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="118" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9282,10 +9275,10 @@
         <v>859</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -9328,14 +9321,14 @@
       <c r="M119" t="s">
         <v>856</v>
       </c>
-      <c r="N119" s="3" t="s">
+      <c r="N119" s="2" t="s">
         <v>856</v>
       </c>
       <c r="P119" t="s">
-        <v>910</v>
-      </c>
-      <c r="Q119" s="3" t="s">
-        <v>924</v>
+        <v>908</v>
+      </c>
+      <c r="Q119" s="2" t="s">
+        <v>922</v>
       </c>
     </row>
   </sheetData>

--- a/data extraction /lit search metadata /wos176_final.xlsx
+++ b/data extraction /lit search metadata /wos176_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCB5D4E-01C2-1C45-BCCF-13C55955CBD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98C8166-139F-A649-BDB1-DF440A45D682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="7400" windowWidth="23980" windowHeight="10600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="1540" windowWidth="23980" windowHeight="10600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wos176_final" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="943">
   <si>
     <t>label</t>
   </si>
@@ -2660,21 +2660,12 @@
     <t>no control constant treatment</t>
   </si>
   <si>
-    <t>not sure about drought treatment in figure 2</t>
-  </si>
-  <si>
     <t>figure 1, table 3</t>
   </si>
   <si>
     <t xml:space="preserve">table 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">appear to have constant, flux, red and white temp treatments; not sure how to deal with triangle icons </t>
-  </si>
-  <si>
-    <t>table 1 for n's?</t>
-  </si>
-  <si>
     <t xml:space="preserve">doesn't appear to be extractable with genetic variability and heritability data </t>
   </si>
   <si>
@@ -2702,24 +2693,15 @@
     <t>differentially expressed genes and PCA, data doesn't look extractable</t>
   </si>
   <si>
-    <t xml:space="preserve">extraction  could be tricky, not sure where sample sizes are </t>
-  </si>
-  <si>
     <t xml:space="preserve">microcosm, conducted in situ </t>
   </si>
   <si>
-    <t>acclimation as well as flux temp featured as treatments</t>
-  </si>
-  <si>
     <t>reciprocal transplants done in situ</t>
   </si>
   <si>
     <t>figure 2, 4, 5</t>
   </si>
   <si>
-    <t>check out the experimental design to see if it's a mesocosm</t>
-  </si>
-  <si>
     <t>check out different experiment treatments</t>
   </si>
   <si>
@@ -2838,6 +2820,36 @@
   </si>
   <si>
     <t xml:space="preserve">data available in figshare--not usable without errors; extracted data from figure but can't locate sample size </t>
+  </si>
+  <si>
+    <t>added the male and females sample sizes together in extraction of table 1</t>
+  </si>
+  <si>
+    <t>extracted figure 1, return to figure 2 for pulse press/acclimation assays?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acclimated at fluctuating and exposed to different constant treatments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">appear to have constant, flux, red and white temp treatments; exlcuded because they were reared in flux but then measured in two different regimes, return for acclimation analysis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">excluded for acclimation to constant environment but measured performance in fluctuating environments, return for acclimation analysis </t>
+  </si>
+  <si>
+    <t>no error reported but flagged for pulse pressexperiments (cold exposure is counted as their fluctuating thermal regime)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acclimation as well as flux temp featured as treatments, flag for pulse press as well </t>
+  </si>
+  <si>
+    <t xml:space="preserve">figure 2,3 for full analysis, figure 4 and 5 acclimation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">figure 1 for full analysis, figure 2 for pulse press, exposure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acclimation at flux and tested at different constant treatments </t>
   </si>
 </sst>
 </file>
@@ -3692,8 +3704,8 @@
   <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q38" sqref="Q38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3751,7 +3763,7 @@
         <v>10</v>
       </c>
       <c r="R1" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -4665,7 +4677,7 @@
         <v>866</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4718,7 +4730,7 @@
         <v>866</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4771,7 +4783,7 @@
         <v>866</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4824,7 +4836,7 @@
         <v>866</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4877,7 +4889,7 @@
         <v>866</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -4983,7 +4995,7 @@
         <v>866</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -5089,7 +5101,7 @@
         <v>866</v>
       </c>
       <c r="Q31" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="R31" t="s">
         <v>23</v>
@@ -5145,7 +5157,7 @@
         <v>866</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -5198,7 +5210,7 @@
         <v>866</v>
       </c>
       <c r="Q33" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="R33" t="s">
         <v>23</v>
@@ -5254,7 +5266,7 @@
         <v>866</v>
       </c>
       <c r="Q34" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="R34" t="s">
         <v>23</v>
@@ -5360,7 +5372,7 @@
         <v>866</v>
       </c>
       <c r="Q36" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="R36" t="s">
         <v>23</v>
@@ -5416,7 +5428,7 @@
         <v>876</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -5469,7 +5481,10 @@
         <v>866</v>
       </c>
       <c r="Q38" t="s">
-        <v>938</v>
+        <v>932</v>
+      </c>
+      <c r="R38" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
@@ -5521,6 +5536,12 @@
       <c r="P39" t="s">
         <v>866</v>
       </c>
+      <c r="Q39" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="40" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -5622,7 +5643,10 @@
         <v>866</v>
       </c>
       <c r="Q41" t="s">
-        <v>879</v>
+        <v>934</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5669,13 +5693,13 @@
         <v>859</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>866</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>857</v>
@@ -5775,166 +5799,169 @@
         <v>856</v>
       </c>
       <c r="O44" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="P44" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>2019</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="J45" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45" t="s">
+      <c r="J45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="L45" t="s">
-        <v>21</v>
-      </c>
-      <c r="M45" t="s">
+      <c r="L45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N45" t="s">
-        <v>856</v>
-      </c>
-      <c r="O45" t="s">
+      <c r="N45" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="O45" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="1" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="Q45" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>2012</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J46" t="s">
-        <v>21</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="J46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="L46" t="s">
-        <v>21</v>
-      </c>
-      <c r="M46" t="s">
+      <c r="L46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N46" t="s">
-        <v>856</v>
-      </c>
-      <c r="O46" t="s">
+      <c r="N46" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="O46" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P46" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="Q46" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="Q46" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>2020</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J47" t="s">
-        <v>21</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="J47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="L47" t="s">
-        <v>21</v>
-      </c>
-      <c r="M47" t="s">
+      <c r="L47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N47" t="s">
-        <v>856</v>
-      </c>
-      <c r="O47" t="s">
+      <c r="N47" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="O47" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="Q47" t="s">
-        <v>883</v>
+      <c r="Q47" s="1" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5984,7 +6011,7 @@
         <v>866</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -6081,7 +6108,7 @@
         <v>856</v>
       </c>
       <c r="O50" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="P50" t="s">
         <v>866</v>
@@ -6131,13 +6158,13 @@
         <v>856</v>
       </c>
       <c r="O51" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="P51" t="s">
         <v>876</v>
       </c>
       <c r="Q51" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6184,7 +6211,7 @@
         <v>859</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -6231,7 +6258,7 @@
         <v>856</v>
       </c>
       <c r="O53" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="P53" t="s">
         <v>866</v>
@@ -6281,7 +6308,7 @@
         <v>859</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6328,7 +6355,7 @@
         <v>859</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -6381,7 +6408,7 @@
         <v>866</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6428,7 +6455,7 @@
         <v>859</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -6482,57 +6509,57 @@
       </c>
       <c r="Q58" s="2"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="1">
         <v>2020</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="J59" t="s">
-        <v>21</v>
-      </c>
-      <c r="K59" t="s">
+      <c r="J59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="L59" t="s">
-        <v>21</v>
-      </c>
-      <c r="M59" t="s">
+      <c r="L59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="N59" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="O59" t="s">
+      <c r="N59" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="O59" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="P59" t="s">
+      <c r="P59" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="Q59" s="2" t="s">
-        <v>893</v>
+      <c r="Q59" s="1" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6579,60 +6606,60 @@
         <v>859</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="1">
         <v>2015</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="J61" t="s">
-        <v>21</v>
-      </c>
-      <c r="K61" t="s">
+      <c r="J61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="L61" t="s">
-        <v>21</v>
-      </c>
-      <c r="M61" t="s">
+      <c r="L61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="N61" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="O61" s="2" t="s">
+      <c r="N61" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="O61" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="P61" s="2" t="s">
+      <c r="P61" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="Q61" s="2" t="s">
-        <v>895</v>
+      <c r="Q61" s="1" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6679,7 +6706,7 @@
         <v>859</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -6726,10 +6753,13 @@
         <v>856</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="P63" s="2" t="s">
         <v>866</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -6782,7 +6812,7 @@
         <v>866</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>898</v>
+        <v>941</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -6835,54 +6865,57 @@
         <v>866</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="1">
         <v>2018</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="J66" t="s">
-        <v>21</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="J66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="L66" t="s">
-        <v>21</v>
-      </c>
-      <c r="M66" t="s">
+      <c r="L66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N66" s="2" t="s">
+      <c r="N66" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="O66" s="2" t="s">
+      <c r="O66" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="P66" s="2" t="s">
+      <c r="P66" s="1" t="s">
         <v>866</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -6935,7 +6968,7 @@
         <v>866</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6985,7 +7018,7 @@
         <v>866</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7035,7 +7068,7 @@
         <v>866</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="70" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7085,7 +7118,7 @@
         <v>866</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7182,7 +7215,7 @@
         <v>866</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -7232,7 +7265,7 @@
         <v>866</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7279,10 +7312,10 @@
         <v>859</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7534,10 +7567,10 @@
         <v>859</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="81" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8331,10 +8364,10 @@
         <v>859</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="100" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8431,7 +8464,7 @@
         <v>876</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="102" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8478,10 +8511,10 @@
         <v>859</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8528,10 +8561,10 @@
         <v>859</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="104" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8578,10 +8611,10 @@
         <v>859</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="105" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8628,10 +8661,10 @@
         <v>859</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="106" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8678,10 +8711,10 @@
         <v>859</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="107" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8728,10 +8761,10 @@
         <v>859</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="108" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8778,10 +8811,10 @@
         <v>859</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="109" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8828,10 +8861,10 @@
         <v>859</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="110" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8878,10 +8911,10 @@
         <v>859</v>
       </c>
       <c r="P110" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="Q110" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="Q110" s="1" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="111" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8931,7 +8964,7 @@
         <v>876</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="112" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9028,10 +9061,10 @@
         <v>859</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="114" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9078,10 +9111,10 @@
         <v>859</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="115" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9128,10 +9161,10 @@
         <v>859</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="116" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9178,7 +9211,7 @@
         <v>859</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="117" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9225,10 +9258,10 @@
         <v>859</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="118" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9275,10 +9308,10 @@
         <v>859</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -9325,10 +9358,10 @@
         <v>856</v>
       </c>
       <c r="P119" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>

--- a/data extraction /lit search metadata /wos176_final.xlsx
+++ b/data extraction /lit search metadata /wos176_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A16A05C-3355-034D-B66A-9743DCFE8586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D19E8AB-F040-ED4D-AEE5-9A4751A59BE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-6520" windowWidth="23980" windowHeight="10600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data extraction /lit search metadata /wos176_final.xlsx
+++ b/data extraction /lit search metadata /wos176_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D19E8AB-F040-ED4D-AEE5-9A4751A59BE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195CC96E-0990-4248-A668-2EA1940C16CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-6520" windowWidth="23980" windowHeight="10600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="460" windowWidth="23980" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wos176_final" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="948">
   <si>
     <t>label</t>
   </si>
@@ -2849,9 +2849,6 @@
     <t>not sure about the f1 and f2 treatments features exposure to ambient temps? (eventhough they have the mean and range recorded)</t>
   </si>
   <si>
-    <t>cellular, parasite host relationship; need help interpretting units</t>
-  </si>
-  <si>
     <t xml:space="preserve">cold acclimation data featured, unclear whether fluctuating and constant treatments can be extracted here </t>
   </si>
   <si>
@@ -2865,6 +2862,9 @@
   </si>
   <si>
     <t>doesn't appear to be extractable, has 95% CI in table 1+2, data available in dryad doesn't have error listed?</t>
+  </si>
+  <si>
+    <t>cellular, parasite host relationship;  etxracted figure 1 and 2, not sure about sample size (listed 3 replicates randomly selected per treatment to anayze so assumed sample size of 3)</t>
   </si>
 </sst>
 </file>
@@ -3719,8 +3719,8 @@
   <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A119" sqref="A119:XFD119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5820,7 +5820,7 @@
         <v>866</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="R44" s="2" t="s">
         <v>23</v>
@@ -6194,7 +6194,10 @@
         <v>876</v>
       </c>
       <c r="Q51" t="s">
-        <v>942</v>
+        <v>947</v>
+      </c>
+      <c r="R51" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6294,7 +6297,7 @@
         <v>866</v>
       </c>
       <c r="Q53" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="54" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6541,7 +6544,7 @@
         <v>866</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="59" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6906,7 +6909,7 @@
         <v>866</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="R65" s="2" t="s">
         <v>23</v>
@@ -7015,7 +7018,7 @@
         <v>866</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/data extraction /lit search metadata /wos176_final.xlsx
+++ b/data extraction /lit search metadata /wos176_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195CC96E-0990-4248-A668-2EA1940C16CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA55029-67F5-4343-AF92-FAED409619A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="460" windowWidth="23980" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="948">
   <si>
     <t>label</t>
   </si>
@@ -2678,15 +2678,9 @@
     <t>not sure about this study, it doesn't appear to have a constant treatment, only typical diurnal pattern with more extreme minima…</t>
   </si>
   <si>
-    <t xml:space="preserve">doesn't appear to have a no variation treatment </t>
-  </si>
-  <si>
     <t>transcriptome differences?</t>
   </si>
   <si>
-    <t xml:space="preserve">incubation in flux temps </t>
-  </si>
-  <si>
     <t>differentially expressed genes and PCA, data doesn't look extractable</t>
   </si>
   <si>
@@ -2849,22 +2843,28 @@
     <t>not sure about the f1 and f2 treatments features exposure to ambient temps? (eventhough they have the mean and range recorded)</t>
   </si>
   <si>
-    <t xml:space="preserve">cold acclimation data featured, unclear whether fluctuating and constant treatments can be extracted here </t>
-  </si>
-  <si>
     <t xml:space="preserve">unclear whther this should be considered multiple exposure or cold exposure--inclear whether there is a constant treatment to extract data frome </t>
   </si>
   <si>
     <t xml:space="preserve">return for cold exposure in figure 2 and figure 1; not sure how usable data for big met analysis is </t>
   </si>
   <si>
-    <t>didn't extract second fluctuating temperature treatment, extracted data from second table because corresponding species were explicitly labeled. Assumed sample size of 125 based on methods?</t>
-  </si>
-  <si>
     <t>doesn't appear to be extractable, has 95% CI in table 1+2, data available in dryad doesn't have error listed?</t>
   </si>
   <si>
     <t>cellular, parasite host relationship;  etxracted figure 1 and 2, not sure about sample size (listed 3 replicates randomly selected per treatment to anayze so assumed sample size of 3)</t>
+  </si>
+  <si>
+    <t>doesn't appear to have a no cnstant treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> extracted data from second table because corresponding species were explicitly labeled. Assumed sample size of 125- based on methods; upon looking at the methods, the upper table appears to be a daily calculation whereas the bottom calculation appears to be a total. just extracted the second table, extracted both fluctuating treatments and coded as ramping </t>
+  </si>
+  <si>
+    <t>cold acclimation data featured, unclear whether fluctuating and constant treatments can be extracted here ; no error reported for fluctuating treatment, only sample size?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incubation in flux temps,  extracted figure 2a for constant vs flux treatment. Extracted the x and y values as separate rows </t>
   </si>
 </sst>
 </file>
@@ -3719,8 +3719,8 @@
   <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A119" sqref="A119:XFD119"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3778,7 +3778,7 @@
         <v>10</v>
       </c>
       <c r="R1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -4692,7 +4692,7 @@
         <v>866</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4745,7 +4745,7 @@
         <v>866</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4798,7 +4798,7 @@
         <v>866</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4851,7 +4851,7 @@
         <v>866</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4904,7 +4904,7 @@
         <v>866</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -5010,7 +5010,7 @@
         <v>866</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -5116,7 +5116,7 @@
         <v>866</v>
       </c>
       <c r="Q31" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="R31" t="s">
         <v>23</v>
@@ -5172,7 +5172,7 @@
         <v>866</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -5225,7 +5225,7 @@
         <v>866</v>
       </c>
       <c r="Q33" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="R33" t="s">
         <v>23</v>
@@ -5281,7 +5281,7 @@
         <v>866</v>
       </c>
       <c r="Q34" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="R34" t="s">
         <v>23</v>
@@ -5387,7 +5387,7 @@
         <v>866</v>
       </c>
       <c r="Q36" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="R36" t="s">
         <v>23</v>
@@ -5443,7 +5443,7 @@
         <v>876</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -5496,7 +5496,7 @@
         <v>866</v>
       </c>
       <c r="Q38" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="R38" t="s">
         <v>23</v>
@@ -5552,7 +5552,7 @@
         <v>866</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="R39" s="2" t="s">
         <v>23</v>
@@ -5658,7 +5658,7 @@
         <v>866</v>
       </c>
       <c r="Q41" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="R41" s="2" t="s">
         <v>23</v>
@@ -5714,7 +5714,7 @@
         <v>866</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>857</v>
@@ -5876,7 +5876,7 @@
         <v>866</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="46" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5929,7 +5929,7 @@
         <v>876</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5982,7 +5982,7 @@
         <v>866</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6138,7 +6138,7 @@
         <v>866</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="R50" s="2" t="s">
         <v>23</v>
@@ -6194,7 +6194,7 @@
         <v>876</v>
       </c>
       <c r="Q51" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="R51" t="s">
         <v>23</v>
@@ -6247,57 +6247,57 @@
         <v>884</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="53" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>2014</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="J53" t="s">
-        <v>21</v>
-      </c>
-      <c r="K53" t="s">
+      <c r="J53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="L53" t="s">
-        <v>21</v>
-      </c>
-      <c r="M53" t="s">
+      <c r="L53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N53" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O53" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P53" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="Q53" t="s">
-        <v>942</v>
+      <c r="Q53" s="1" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="54" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6344,7 +6344,7 @@
         <v>859</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>885</v>
+        <v>944</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6391,7 +6391,7 @@
         <v>859</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
@@ -6444,7 +6444,10 @@
         <v>866</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>887</v>
+        <v>947</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6491,7 +6494,7 @@
         <v>859</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
@@ -6544,7 +6547,7 @@
         <v>866</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="59" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6597,7 +6600,7 @@
         <v>866</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="60" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6644,7 +6647,7 @@
         <v>859</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="61" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6697,7 +6700,7 @@
         <v>866</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6744,7 +6747,7 @@
         <v>859</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
@@ -6791,13 +6794,13 @@
         <v>856</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="P63" s="2" t="s">
         <v>866</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="R63" s="2" t="s">
         <v>23</v>
@@ -6853,7 +6856,7 @@
         <v>866</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="R64" s="2" t="s">
         <v>23</v>
@@ -6909,7 +6912,7 @@
         <v>866</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="R65" s="2" t="s">
         <v>23</v>
@@ -6965,7 +6968,7 @@
         <v>866</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
@@ -7018,7 +7021,7 @@
         <v>866</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7068,7 +7071,7 @@
         <v>866</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="69" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7118,7 +7121,7 @@
         <v>866</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="70" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7168,7 +7171,7 @@
         <v>866</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="71" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7265,7 +7268,7 @@
         <v>866</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
@@ -7315,7 +7318,7 @@
         <v>866</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7362,10 +7365,10 @@
         <v>859</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="75" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7617,10 +7620,10 @@
         <v>859</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="81" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8414,10 +8417,10 @@
         <v>859</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="100" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8514,7 +8517,7 @@
         <v>876</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="102" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8561,10 +8564,10 @@
         <v>859</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="103" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8611,10 +8614,10 @@
         <v>859</v>
       </c>
       <c r="P103" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="Q103" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="Q103" s="1" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="104" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8661,10 +8664,10 @@
         <v>859</v>
       </c>
       <c r="P104" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="Q104" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="Q104" s="1" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="105" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8711,10 +8714,10 @@
         <v>859</v>
       </c>
       <c r="P105" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="Q105" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="Q105" s="1" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="106" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8761,10 +8764,10 @@
         <v>859</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="107" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8811,10 +8814,10 @@
         <v>859</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="108" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8861,10 +8864,10 @@
         <v>859</v>
       </c>
       <c r="P108" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="Q108" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="109" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8911,10 +8914,10 @@
         <v>859</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="110" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8961,10 +8964,10 @@
         <v>859</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="111" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9014,7 +9017,7 @@
         <v>876</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="112" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9111,10 +9114,10 @@
         <v>859</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="114" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9161,10 +9164,10 @@
         <v>859</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="115" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9211,10 +9214,10 @@
         <v>859</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="116" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9261,7 +9264,7 @@
         <v>859</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="117" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9308,10 +9311,10 @@
         <v>859</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="118" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9358,10 +9361,10 @@
         <v>859</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -9408,10 +9411,10 @@
         <v>856</v>
       </c>
       <c r="P119" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
   </sheetData>

--- a/data extraction /lit search metadata /wos176_final.xlsx
+++ b/data extraction /lit search metadata /wos176_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA55029-67F5-4343-AF92-FAED409619A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012D9CFD-002C-D643-9CF1-74B98AB56E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="460" windowWidth="23980" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2420" yWindow="460" windowWidth="23980" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wos176_final" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="948">
   <si>
     <t>label</t>
   </si>
@@ -2849,9 +2849,6 @@
     <t xml:space="preserve">return for cold exposure in figure 2 and figure 1; not sure how usable data for big met analysis is </t>
   </si>
   <si>
-    <t>doesn't appear to be extractable, has 95% CI in table 1+2, data available in dryad doesn't have error listed?</t>
-  </si>
-  <si>
     <t>cellular, parasite host relationship;  etxracted figure 1 and 2, not sure about sample size (listed 3 replicates randomly selected per treatment to anayze so assumed sample size of 3)</t>
   </si>
   <si>
@@ -2865,6 +2862,9 @@
   </si>
   <si>
     <t xml:space="preserve">incubation in flux temps,  extracted figure 2a for constant vs flux treatment. Extracted the x and y values as separate rows </t>
+  </si>
+  <si>
+    <t xml:space="preserve">extracted figure 1 and 2, did not extract the offspring repsonse for figure 2 because did not appear normally distributed, calculated standard deviation from iqr and dividing by 1.35. not sure about sample sizes here </t>
   </si>
 </sst>
 </file>
@@ -3719,8 +3719,8 @@
   <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R50" sqref="R50"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R67" sqref="R67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5820,7 +5820,7 @@
         <v>866</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="R44" s="2" t="s">
         <v>23</v>
@@ -6194,7 +6194,7 @@
         <v>876</v>
       </c>
       <c r="Q51" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="R51" t="s">
         <v>23</v>
@@ -6297,7 +6297,7 @@
         <v>866</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="54" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6344,7 +6344,7 @@
         <v>859</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6444,7 +6444,7 @@
         <v>866</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="R56" s="2" t="s">
         <v>23</v>
@@ -7021,7 +7021,10 @@
         <v>866</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>942</v>
+        <v>947</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/data extraction /lit search metadata /wos176_final.xlsx
+++ b/data extraction /lit search metadata /wos176_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012D9CFD-002C-D643-9CF1-74B98AB56E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA4EA5A-0374-994E-9FA3-5645F45EF917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="460" windowWidth="23980" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="460" windowWidth="23980" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wos176_final" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="948">
   <si>
     <t>label</t>
   </si>
@@ -2795,9 +2795,6 @@
     <t>pulse press, acclimation experiment</t>
   </si>
   <si>
-    <t>heatshock, return for pulse press experiments work; missing sample size for current extraction</t>
-  </si>
-  <si>
     <t>might need to return to get actual irradiances for UV treatments (they manipulated both temperature and irradiance in these experiments)</t>
   </si>
   <si>
@@ -2843,9 +2840,6 @@
     <t>not sure about the f1 and f2 treatments features exposure to ambient temps? (eventhough they have the mean and range recorded)</t>
   </si>
   <si>
-    <t xml:space="preserve">unclear whther this should be considered multiple exposure or cold exposure--inclear whether there is a constant treatment to extract data frome </t>
-  </si>
-  <si>
     <t xml:space="preserve">return for cold exposure in figure 2 and figure 1; not sure how usable data for big met analysis is </t>
   </si>
   <si>
@@ -2865,6 +2859,12 @@
   </si>
   <si>
     <t xml:space="preserve">extracted figure 1 and 2, did not extract the offspring repsonse for figure 2 because did not appear normally distributed, calculated standard deviation from iqr and dividing by 1.35. not sure about sample sizes here </t>
+  </si>
+  <si>
+    <t xml:space="preserve">heatshock, return for pulse press experiments work; assumed sample size of 7 since methods said for each treatment n=7-9, assumed lower bound of sample size </t>
+  </si>
+  <si>
+    <t xml:space="preserve">extracted figure 2, excluded the temp directions of the same temp, not sure about sample size and not sure how to show the distinction between the the same ranges, one starting high and one starting low </t>
   </si>
 </sst>
 </file>
@@ -3719,8 +3719,8 @@
   <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R67" sqref="R67"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5225,7 +5225,7 @@
         <v>866</v>
       </c>
       <c r="Q33" t="s">
-        <v>924</v>
+        <v>946</v>
       </c>
       <c r="R33" t="s">
         <v>23</v>
@@ -5281,7 +5281,7 @@
         <v>866</v>
       </c>
       <c r="Q34" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="R34" t="s">
         <v>23</v>
@@ -5387,7 +5387,7 @@
         <v>866</v>
       </c>
       <c r="Q36" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="R36" t="s">
         <v>23</v>
@@ -5443,7 +5443,7 @@
         <v>876</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -5496,7 +5496,7 @@
         <v>866</v>
       </c>
       <c r="Q38" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="R38" t="s">
         <v>23</v>
@@ -5552,7 +5552,7 @@
         <v>866</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="R39" s="2" t="s">
         <v>23</v>
@@ -5658,7 +5658,7 @@
         <v>866</v>
       </c>
       <c r="Q41" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="R41" s="2" t="s">
         <v>23</v>
@@ -5820,7 +5820,7 @@
         <v>866</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="R44" s="2" t="s">
         <v>23</v>
@@ -5876,7 +5876,7 @@
         <v>866</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="46" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5929,7 +5929,7 @@
         <v>876</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5982,7 +5982,7 @@
         <v>866</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6138,7 +6138,7 @@
         <v>866</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="R50" s="2" t="s">
         <v>23</v>
@@ -6194,7 +6194,7 @@
         <v>876</v>
       </c>
       <c r="Q51" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="R51" t="s">
         <v>23</v>
@@ -6297,7 +6297,7 @@
         <v>866</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="54" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6344,7 +6344,7 @@
         <v>859</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6444,7 +6444,7 @@
         <v>866</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="R56" s="2" t="s">
         <v>23</v>
@@ -6547,7 +6547,10 @@
         <v>866</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>940</v>
+        <v>947</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6600,7 +6603,7 @@
         <v>866</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="60" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6700,7 +6703,7 @@
         <v>866</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6800,7 +6803,7 @@
         <v>866</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="R63" s="2" t="s">
         <v>23</v>
@@ -6856,7 +6859,7 @@
         <v>866</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="R64" s="2" t="s">
         <v>23</v>
@@ -6912,7 +6915,7 @@
         <v>866</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="R65" s="2" t="s">
         <v>23</v>
@@ -6968,7 +6971,7 @@
         <v>866</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
@@ -7021,7 +7024,7 @@
         <v>866</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="R67" s="2" t="s">
         <v>23</v>

--- a/data extraction /lit search metadata /wos176_final.xlsx
+++ b/data extraction /lit search metadata /wos176_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA4EA5A-0374-994E-9FA3-5645F45EF917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03ED1E3-5932-9241-931F-F760C2EEE979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="460" windowWidth="23980" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2380" yWindow="460" windowWidth="23980" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wos176_final" sheetId="1" r:id="rId1"/>
@@ -3718,9 +3718,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K101" sqref="K101:K119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7614,7 +7614,7 @@
         <v>21</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>188</v>
+        <v>409</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>21</v>
